--- a/DAM_Database/Hazards/Salinity/Constraints.xlsx
+++ b/DAM_Database/Hazards/Salinity/Constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38FEB4-6F9D-404E-A521-91DC64207A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048232E1-08A1-40F7-A202-6E50FA77D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>x1</t>
   </si>
@@ -165,6 +165,156 @@
   <si>
     <t>Cropping system</t>
   </si>
+  <si>
+    <t>Access to capture fish</t>
+  </si>
+  <si>
+    <t>Aquaculture ponds</t>
+  </si>
+  <si>
+    <t>Access to aquatic resources</t>
+  </si>
+  <si>
+    <t>Mixed aquaculture</t>
+  </si>
+  <si>
+    <t>Cattle rearing</t>
+  </si>
+  <si>
+    <t>Livestock place</t>
+  </si>
+  <si>
+    <t>Poultry rearing</t>
+  </si>
+  <si>
+    <t>Available wetland/land for fodder</t>
+  </si>
+  <si>
+    <t>Moneylender (Non-institutional)</t>
+  </si>
+  <si>
+    <t>Filtered water</t>
+  </si>
+  <si>
+    <t>Pond Sand Filter</t>
+  </si>
+  <si>
+    <t>Rainwater harvesting tank</t>
+  </si>
+  <si>
+    <t>Rainwater harvesting pond</t>
+  </si>
+  <si>
+    <t>Saline water treatment plant</t>
+  </si>
+  <si>
+    <t>Tap water</t>
+  </si>
+  <si>
+    <t>Tube well</t>
+  </si>
+  <si>
+    <t>Agriculture/ health/ personal insurance</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Personal savings</t>
+  </si>
+  <si>
+    <t>Social SafetyNet Program</t>
+  </si>
+  <si>
+    <t>Bridge/Culvert</t>
+  </si>
+  <si>
+    <t>RCC road</t>
+  </si>
+  <si>
+    <t>Number of community clinic</t>
+  </si>
+  <si>
+    <t>Floating medical unit</t>
+  </si>
+  <si>
+    <t>Number of health worker</t>
+  </si>
+  <si>
+    <t>Market/Bazar with hard structure</t>
+  </si>
+  <si>
+    <t>Hat with hard structure</t>
+  </si>
+  <si>
+    <t>Crab fattening</t>
+  </si>
+  <si>
+    <t>Dry fish</t>
+  </si>
+  <si>
+    <t>Laboring</t>
+  </si>
+  <si>
+    <t>Shrimp farming</t>
+  </si>
+  <si>
+    <t>Salt farming</t>
+  </si>
+  <si>
+    <t>Agricultural support (Seed/Fertilizer)</t>
+  </si>
+  <si>
+    <t>Micro-credit from organizations</t>
+  </si>
+  <si>
+    <t>Livestock support (Poultry/ Cattle/ Place)</t>
+  </si>
+  <si>
+    <t>Relief (Rice/Money/Foods)</t>
+  </si>
+  <si>
+    <t>River/Canals</t>
+  </si>
+  <si>
+    <t>Shallow tube well</t>
+  </si>
+  <si>
+    <t>Deep tube well</t>
+  </si>
+  <si>
+    <t>Homestead plantation</t>
+  </si>
+  <si>
+    <t>Livelihood migration</t>
+  </si>
+  <si>
+    <t>Vocational/technical training</t>
+  </si>
+  <si>
+    <t>Indigenous knowledge</t>
+  </si>
+  <si>
+    <t>Fertilizer (Red and Black)</t>
+  </si>
+  <si>
+    <t>Integrated farming</t>
+  </si>
+  <si>
+    <t>Lime (CaOH2)</t>
+  </si>
+  <si>
+    <t>Saline tolerant plant/Fish/Crab</t>
+  </si>
+  <si>
+    <t>Seed/Rice bank</t>
+  </si>
+  <si>
+    <t>Water Hyacinth</t>
+  </si>
+  <si>
+    <t>Cropping intensity</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +337,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,13 +371,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4990,1915 +5154,5907 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D589A6-4A57-46D8-B1EE-9C3393AD5DC4}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>41</v>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>404712</v>
       </c>
       <c r="B2" s="5">
-        <v>0.99999946148210395</v>
+        <v>0.94108538702676403</v>
       </c>
       <c r="C2" s="5">
-        <v>0.99999943131592295</v>
+        <v>0.96371374057408898</v>
       </c>
       <c r="D2" s="5">
-        <v>0.99999833868285104</v>
+        <v>0.53913448106201201</v>
       </c>
       <c r="E2" s="5">
-        <v>0.99999857772979295</v>
+        <v>0.97299562921417104</v>
       </c>
       <c r="F2" s="5">
-        <v>0.99999853265942995</v>
+        <v>0.96473020207521198</v>
       </c>
       <c r="G2" s="5">
-        <v>0.99999700706392203</v>
+        <v>0.94234537869026003</v>
       </c>
       <c r="H2" s="5">
-        <v>0.99999819707570203</v>
+        <v>0.96300781349805897</v>
       </c>
       <c r="I2" s="5">
-        <v>0.99999816270353103</v>
+        <v>0.88645018537382403</v>
       </c>
       <c r="J2" s="5">
-        <v>0.99999771715153396</v>
+        <v>0.980062773282109</v>
       </c>
       <c r="K2" s="5">
-        <v>0.99999684263827104</v>
+        <v>0.50664058718810301</v>
       </c>
       <c r="L2" s="5">
-        <v>0.99999756062669198</v>
+        <v>0.50664058718810301</v>
       </c>
       <c r="M2" s="5">
-        <v>0.99999862304127995</v>
+        <v>0.97378036714975802</v>
       </c>
       <c r="N2" s="5">
-        <v>0.99999840561061404</v>
+        <v>0.50664058718810301</v>
       </c>
       <c r="O2" s="5">
-        <v>0.999998271782227</v>
+        <v>0.955678130920388</v>
       </c>
       <c r="P2" s="5">
-        <v>0.49624005261467302</v>
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.98130100456993397</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.77829661086156499</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.96507592562372502</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.97952885269366896</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.97109077630086005</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.90888263266239899</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.55292669567709296</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.56826504144663503</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.96286002701998097</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.89489209127129798</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.86321574004694901</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.95287259045883299</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.97266275508070599</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.95354194967656403</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.97475377785400796</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>0.84259609640355204</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>0.97884562830580202</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>0.50664058718810301</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>0.87454778381679099</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>0.87972482423086595</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>0.77828209234505696</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>0.96906375335579897</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>0.98425468571517605</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>0.978642571703356</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>0.98583233071278797</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>0.95943622004274098</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>0.52173659588458099</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0.98279731547576399</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>0.97698979852836199</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>404717</v>
       </c>
       <c r="B3" s="5">
-        <v>0.94130668983751098</v>
+        <v>0.67140413841709801</v>
       </c>
       <c r="C3" s="5">
-        <v>0.94632365199384005</v>
+        <v>0.74878322347009296</v>
       </c>
       <c r="D3" s="5">
-        <v>0.82072510581389602</v>
+        <v>0.50525028621731105</v>
       </c>
       <c r="E3" s="5">
-        <v>0.86084992439962105</v>
+        <v>0.79289590128374698</v>
       </c>
       <c r="F3" s="5">
-        <v>0.85324713133430596</v>
+        <v>0.80063675616376695</v>
       </c>
       <c r="G3" s="5">
-        <v>0.75624983698857395</v>
+        <v>0.70894808075367399</v>
       </c>
       <c r="H3" s="5">
-        <v>0.83953420964913705</v>
+        <v>0.78974542886086196</v>
       </c>
       <c r="I3" s="5">
-        <v>0.78713608028444204</v>
+        <v>0.61092537764353205</v>
       </c>
       <c r="J3" s="5">
-        <v>0.77666246627164504</v>
+        <v>0.81896620689536503</v>
       </c>
       <c r="K3" s="5">
-        <v>0.724050544743158</v>
+        <v>0.50050902676095699</v>
       </c>
       <c r="L3" s="5">
-        <v>0.82376155295429598</v>
+        <v>0.50050902676095699</v>
       </c>
       <c r="M3" s="5">
-        <v>0.84067341840112497</v>
+        <v>0.80152547902326299</v>
       </c>
       <c r="N3" s="5">
-        <v>0.83798690353973404</v>
+        <v>0.50050902676095699</v>
       </c>
       <c r="O3" s="5">
-        <v>0.84340076115143703</v>
+        <v>0.72042135440468702</v>
       </c>
       <c r="P3" s="5">
-        <v>0.43789157239035098</v>
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.83856972713284605</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.55067496575664798</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.75582106939145499</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.83951040309323399</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0.76620929487548195</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.611646684078614</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.50726932883208697</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.509521422870296</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.72715075366105997</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.58739856886293795</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0.56306554268083897</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0.68607853852612599</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0.81872465301543496</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0.68799393431658196</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>0.78191284977891695</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>0.56429251625182097</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>0.825484167339396</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>0.50050902676095699</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>0.58561769291166199</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>0.58949262195238095</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>0.55477592548745003</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0.79132587130336096</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>0.86642033005152197</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0.83079798876690403</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>0.87773145879013303</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0.72960031431695005</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>0.502709702795194</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0.85691907383061405</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>0.81801749719091299</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>404740</v>
       </c>
       <c r="B4" s="5">
-        <v>0.99999959918825299</v>
+        <v>0.94229389871148705</v>
       </c>
       <c r="C4" s="5">
-        <v>0.99999958143276801</v>
+        <v>0.96500733481225898</v>
       </c>
       <c r="D4" s="5">
-        <v>0.99999876387164</v>
+        <v>0.541347935991216</v>
       </c>
       <c r="E4" s="5">
-        <v>0.99999894887235796</v>
+        <v>0.97434132227242498</v>
       </c>
       <c r="F4" s="5">
-        <v>0.99999891377234595</v>
+        <v>0.96693194631290402</v>
       </c>
       <c r="G4" s="5">
-        <v>0.99999781603045901</v>
+        <v>0.94488886725622201</v>
       </c>
       <c r="H4" s="5">
-        <v>0.99999867652403196</v>
+        <v>0.96442857525690695</v>
       </c>
       <c r="I4" s="5">
-        <v>0.99999862346490498</v>
+        <v>0.88934116838150201</v>
       </c>
       <c r="J4" s="5">
-        <v>0.99999831130402195</v>
+        <v>0.98101801268945599</v>
       </c>
       <c r="K4" s="5">
-        <v>0.999997676453933</v>
+        <v>0.50735197585632597</v>
       </c>
       <c r="L4" s="5">
-        <v>0.99999824414182503</v>
+        <v>0.50735197585632597</v>
       </c>
       <c r="M4" s="5">
-        <v>0.99999896989349601</v>
+        <v>0.97469619748187797</v>
       </c>
       <c r="N4" s="5">
-        <v>0.99999881823398795</v>
+        <v>0.50735197585632597</v>
       </c>
       <c r="O4" s="5">
-        <v>0.99999873087588698</v>
+        <v>0.95914293948318996</v>
       </c>
       <c r="P4" s="5">
-        <v>0.49624019367576599</v>
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.98214677083884905</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.78916329427626297</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.96630104447883602</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.980409577621012</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.97235085008279398</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.91614369444061805</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.55577301223614595</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.571809953673455</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.96514353668157005</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.89451626661996098</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.87135911108618802</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.95476246109451002</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.97385429392244804</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.95522019750097698</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.97608123626656496</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0.85240905283226698</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0.979941895188013</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.50735197585632597</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.88040224514849197</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.88441818882607903</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0.78902850857928897</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.97090033543226995</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>0.98502947378404704</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0.97960869670470896</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>0.98651585435191702</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0.96224584566302096</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0.52314722704958905</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0.983741348515486</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>0.97846332500131095</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>404730</v>
       </c>
       <c r="B5" s="5">
-        <v>0.95478246948067602</v>
+        <v>0.71101717993618596</v>
       </c>
       <c r="C5" s="5">
-        <v>0.95734739495694898</v>
+        <v>0.79220453678166802</v>
       </c>
       <c r="D5" s="5">
-        <v>0.86082615081472003</v>
+        <v>0.50800108374410202</v>
       </c>
       <c r="E5" s="5">
-        <v>0.89020652470697503</v>
+        <v>0.83040210473385201</v>
       </c>
       <c r="F5" s="5">
-        <v>0.88448546758959401</v>
+        <v>0.82868898242172995</v>
       </c>
       <c r="G5" s="5">
-        <v>0.79863534019760096</v>
+        <v>0.74188134004536199</v>
       </c>
       <c r="H5" s="5">
-        <v>0.87045936411689695</v>
+        <v>0.81869337818454002</v>
       </c>
       <c r="I5" s="5">
-        <v>0.83715038527625196</v>
+        <v>0.63108021722456997</v>
       </c>
       <c r="J5" s="5">
-        <v>0.82276869720723</v>
+        <v>0.86098891062997096</v>
       </c>
       <c r="K5" s="5">
-        <v>0.77438661128360498</v>
+        <v>0.50188985056663005</v>
       </c>
       <c r="L5" s="5">
-        <v>0.85258554348760596</v>
+        <v>0.50188985056663005</v>
       </c>
       <c r="M5" s="5">
-        <v>0.878742461925758</v>
+        <v>0.83794078895537105</v>
       </c>
       <c r="N5" s="5">
-        <v>0.87319388037311696</v>
+        <v>0.50188985056663005</v>
       </c>
       <c r="O5" s="5">
-        <v>0.87385650163297002</v>
+        <v>0.76445177246943596</v>
       </c>
       <c r="P5" s="5">
-        <v>0.45101808608435601</v>
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.87315738678411403</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.56359048448563898</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.79952053454416405</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.87055845375463503</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.81241037104854197</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.64280274613641897</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.51058762439484495</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.51345974339704503</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.77869985648803097</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.61265938922528695</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.58193024823469897</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.736195660798587</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.84937542687658496</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.73836442923938295</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.82627282866554597</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.58114882395691403</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0.86201609724922801</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.50188985056663005</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>0.60489706173034896</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>0.609397009031443</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>0.567709217707277</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.82639934826405803</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>0.89420535321317296</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>0.86484137726914301</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>0.90503277484720301</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>0.77415905303223398</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>0.50473668525347304</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0.88615784155523203</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>0.85327820335179905</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>404748</v>
       </c>
       <c r="B6" s="5">
-        <v>0.88779789085343797</v>
+        <v>0.58844215707448699</v>
       </c>
       <c r="C6" s="5">
-        <v>0.90924080383463401</v>
+        <v>0.64320200823942597</v>
       </c>
       <c r="D6" s="5">
-        <v>0.67501548942987599</v>
+        <v>0.50203383081958897</v>
       </c>
       <c r="E6" s="5">
-        <v>0.76044073925488498</v>
+        <v>0.68371904852313203</v>
       </c>
       <c r="F6" s="5">
-        <v>0.74511372412747001</v>
+        <v>0.73499037777083198</v>
       </c>
       <c r="G6" s="5">
-        <v>0.64240280220083401</v>
+        <v>0.64662642423822403</v>
       </c>
       <c r="H6" s="5">
-        <v>0.74517102519337197</v>
+        <v>0.72254284687105896</v>
       </c>
       <c r="I6" s="5">
-        <v>0.60725506492137704</v>
+        <v>0.572510485157945</v>
       </c>
       <c r="J6" s="5">
-        <v>0.63491966871986305</v>
+        <v>0.66983150481920295</v>
       </c>
       <c r="K6" s="5">
-        <v>0.59214290709472495</v>
+        <v>0.50050660299338101</v>
       </c>
       <c r="L6" s="5">
-        <v>0.74879255067288097</v>
+        <v>0.50050660299338101</v>
       </c>
       <c r="M6" s="5">
-        <v>0.68792672539363398</v>
+        <v>0.69315548465221</v>
       </c>
       <c r="N6" s="5">
-        <v>0.71587516500295101</v>
+        <v>0.50050660299338101</v>
       </c>
       <c r="O6" s="5">
-        <v>0.74794860991227297</v>
+        <v>0.62277494562713498</v>
       </c>
       <c r="P6" s="5">
-        <v>0.38775673081077</v>
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.71946318393712505</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.52433903067588095</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.642839505481128</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.74516505279303702</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.62737695265022797</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0.54282840379800301</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.50268431542554004</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.50341073282565396</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.59864070418607795</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.53176444335082296</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.522208644164881</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.57209837556561305</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0.73935340438697195</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.57306515419396997</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.631323329595743</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>0.52897729341112398</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0.70483702134422499</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0.50050660299338101</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>0.54629324229318399</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>0.548966711490666</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>0.52914908812505201</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0.69621669592421798</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>0.76783549856609901</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>0.72312594363500604</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>0.78351273352502104</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>0.62879291719317598</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>0.50121576355109099</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0.75570355618564</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>0.70849125248064704</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>404753</v>
       </c>
       <c r="B7" s="5">
-        <v>0.99999976054527195</v>
+        <v>0.97230018550011199</v>
       </c>
       <c r="C7" s="5">
-        <v>0.999999749937722</v>
+        <v>0.982266983253966</v>
       </c>
       <c r="D7" s="5">
-        <v>0.99999926150769702</v>
+        <v>0.551335039244091</v>
       </c>
       <c r="E7" s="5">
-        <v>0.99999937203038503</v>
+        <v>0.98774454914658705</v>
       </c>
       <c r="F7" s="5">
-        <v>0.99999935106086202</v>
+        <v>0.98377022846183304</v>
       </c>
       <c r="G7" s="5">
-        <v>0.99999869524553897</v>
+        <v>0.97606885427313494</v>
       </c>
       <c r="H7" s="5">
-        <v>0.99999920932285002</v>
+        <v>0.98290362524290997</v>
       </c>
       <c r="I7" s="5">
-        <v>0.99999917762478496</v>
+        <v>0.943560395430184</v>
       </c>
       <c r="J7" s="5">
-        <v>0.99999899112993096</v>
+        <v>0.99099668162602605</v>
       </c>
       <c r="K7" s="5">
-        <v>0.99999861186019701</v>
+        <v>0.51368235260563699</v>
       </c>
       <c r="L7" s="5">
-        <v>0.99999895100560698</v>
+        <v>0.51368235260563699</v>
       </c>
       <c r="M7" s="5">
-        <v>0.99999938458938997</v>
+        <v>0.98846704439339805</v>
       </c>
       <c r="N7" s="5">
-        <v>0.99999929398389398</v>
+        <v>0.51368235260563699</v>
       </c>
       <c r="O7" s="5">
-        <v>0.99999924179463895</v>
+        <v>0.978547840325526</v>
       </c>
       <c r="P7" s="5">
-        <v>0.49624035785738402</v>
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.99139014181329299</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.82370628660362899</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.98386767325201097</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.99023171014869904</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.98607502171073103</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.94764197697470898</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.56727882923473205</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.58498351753070799</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.98290868295647604</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.96504532284182998</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.92774793359515695</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.97831119590532301</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.98696016211770499</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.978622757080165</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.98770417576168601</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.51368235260563799</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0.89886406575373301</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0.99052714753011595</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0.51368235260563699</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>0.93443079861325495</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>0.94130632501339095</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0.821196347857165</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0.98616276094202204</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>0.992644932019628</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>0.99024806744459104</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>0.99343523280301305</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>0.97943522047347198</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>0.53119081956550895</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>0.991882217983176</v>
+      </c>
+      <c r="AY7" s="5">
+        <v>0.98974765246435703</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>404764</v>
       </c>
       <c r="B8" s="5">
-        <v>0.99999836701956202</v>
+        <v>0.55544537146494399</v>
       </c>
       <c r="C8" s="5">
-        <v>0.99999829468921997</v>
+        <v>0.59971226459093796</v>
       </c>
       <c r="D8" s="5">
-        <v>0.99999496380741904</v>
+        <v>0.49372806831944799</v>
       </c>
       <c r="E8" s="5">
-        <v>0.99999571748886895</v>
+        <v>0.63772171575679704</v>
       </c>
       <c r="F8" s="5">
-        <v>0.99999557453508303</v>
+        <v>0.72479581655272696</v>
       </c>
       <c r="G8" s="5">
-        <v>0.99999110225799404</v>
+        <v>0.624580083553673</v>
       </c>
       <c r="H8" s="5">
-        <v>0.99999460797101003</v>
+        <v>0.709825081987428</v>
       </c>
       <c r="I8" s="5">
-        <v>0.99999439170246696</v>
+        <v>0.55309172397119799</v>
       </c>
       <c r="J8" s="5">
-        <v>0.99999312001861596</v>
+        <v>0.59302719635137402</v>
       </c>
       <c r="K8" s="5">
-        <v>0.99999053341547794</v>
+        <v>0.49301533487691501</v>
       </c>
       <c r="L8" s="5">
-        <v>0.99999284642152297</v>
+        <v>0.49301533498596301</v>
       </c>
       <c r="M8" s="5">
-        <v>0.99999580313103698</v>
+        <v>0.64762528041720002</v>
       </c>
       <c r="N8" s="5">
-        <v>0.99999518535029697</v>
+        <v>0.49301533484969601</v>
       </c>
       <c r="O8" s="5">
-        <v>0.99999482934096895</v>
+        <v>0.58338150456377702</v>
       </c>
       <c r="P8" s="5">
-        <v>0.49623893994068402</v>
+        <v>0.49301533500688</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.49301533488565003</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.66180027502298799</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.50949602811361205</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.49301533486952198</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.59464996445061602</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0.71169117205610499</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.56698350166339395</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0.51640569244569501</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0.494031715989391</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.49437056966419102</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.54750810989993903</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.50943692347344705</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.50405577395831502</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.52973085859662095</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0.493015334898951</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0.49301533530770902</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0.71768390043114205</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0.53025782498920804</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0.56323024252795595</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0.493015335112163</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0.49301533478154502</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>0.511688616286881</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>0.64694264982719296</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0.49301533497671102</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>0.52723444413653697</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>0.52951082173842601</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>0.51416497434015496</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0.66135080132877999</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>0.72835450699349902</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>0.67801558882160795</v>
+      </c>
+      <c r="AU8" s="5">
+        <v>0.74683372229439704</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>0.58828565853647397</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>0.493346111417303</v>
+      </c>
+      <c r="AX8" s="5">
+        <v>0.71476307756258495</v>
+      </c>
+      <c r="AY8" s="5">
+        <v>0.66232121040189795</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>404769</v>
       </c>
       <c r="B9" s="5">
-        <v>0.83571222955830304</v>
+        <v>0.99253151300532305</v>
       </c>
       <c r="C9" s="5">
-        <v>0.88188779211176904</v>
+        <v>0.99722230118849098</v>
       </c>
       <c r="D9" s="5">
-        <v>0.56825113122818505</v>
+        <v>0.58233278926381804</v>
       </c>
       <c r="E9" s="5">
-        <v>0.68559476270319797</v>
+        <v>0.99804776462479405</v>
       </c>
       <c r="F9" s="5">
-        <v>0.66544281128965799</v>
+        <v>0.99674486775037696</v>
       </c>
       <c r="G9" s="5">
-        <v>0.58170721864330899</v>
+        <v>0.99652383538864897</v>
       </c>
       <c r="H9" s="5">
-        <v>0.68497323835194801</v>
+        <v>0.99729030879514102</v>
       </c>
       <c r="I9" s="5">
-        <v>0.489862140544706</v>
+        <v>0.91371351699557002</v>
       </c>
       <c r="J9" s="5">
-        <v>0.54982444956831</v>
+        <v>0.99850641509195903</v>
       </c>
       <c r="K9" s="5">
-        <v>0.52526319288193601</v>
+        <v>0.54969107658384897</v>
       </c>
       <c r="L9" s="5">
-        <v>0.70834072862831099</v>
+        <v>0.55262310009306004</v>
       </c>
       <c r="M9" s="5">
-        <v>0.55976221985849794</v>
+        <v>0.99787199797241399</v>
       </c>
       <c r="N9" s="5">
-        <v>0.62438188998987898</v>
+        <v>0.55036803752389096</v>
       </c>
       <c r="O9" s="5">
-        <v>0.685808474152515</v>
+        <v>0.99705371810740195</v>
       </c>
       <c r="P9" s="5">
-        <v>0.34304976072813798</v>
+        <v>0.55148063848890305</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.54736867886113605</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.99867300823861205</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.74495867399835403</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.54883958533007804</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.99748465315699297</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0.99816019674473</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.99743008293816804</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.99995466797087196</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.59009924518100199</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.60862967407580804</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.99721700402130997</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.83811507300890498</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.76482521955664096</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.99513875691253495</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.547628591094934</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.54863464414734298</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0.99774235447567705</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0.99538374957206599</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0.99805897276066002</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0.55291721632086499</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0.55009958415072902</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0.76178574527615905</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0.99852624328748696</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0.55070993655005995</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>0.81532689757037802</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>0.83421373827855705</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0.748461744136665</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0.99771760702354995</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>0.99878693179546996</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>0.99826659455011901</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>0.99887507427053102</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>0.99668007162191397</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>0.56507183871425304</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>0.99866530451571001</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>0.99801606337055604</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>404775</v>
       </c>
       <c r="B10" s="5">
-        <v>0.99998520768621502</v>
+        <v>0.72665243851165195</v>
       </c>
       <c r="C10" s="5">
-        <v>0.99998455289106303</v>
+        <v>0.81468397916874502</v>
       </c>
       <c r="D10" s="5">
-        <v>0.99995437955603295</v>
+        <v>0.52145479090050195</v>
       </c>
       <c r="E10" s="5">
-        <v>0.99996120805595501</v>
+        <v>0.85269031348730595</v>
       </c>
       <c r="F10" s="5">
-        <v>0.99995991247513005</v>
+        <v>0.84528110564597603</v>
       </c>
       <c r="G10" s="5">
-        <v>0.99991940313722105</v>
+        <v>0.74200860627041099</v>
       </c>
       <c r="H10" s="5">
-        <v>0.99995115792496103</v>
+        <v>0.83298133676435404</v>
       </c>
       <c r="I10" s="5">
-        <v>0.999949196862853</v>
+        <v>0.64303819165042997</v>
       </c>
       <c r="J10" s="5">
-        <v>0.99993767803828904</v>
+        <v>0.87967510202884203</v>
       </c>
       <c r="K10" s="5">
-        <v>0.99991425022942004</v>
+        <v>0.51557507077567299</v>
       </c>
       <c r="L10" s="5">
-        <v>0.99993520435511796</v>
+        <v>0.515575070775671</v>
       </c>
       <c r="M10" s="5">
-        <v>0.99996198249685297</v>
+        <v>0.85878006012470998</v>
       </c>
       <c r="N10" s="5">
-        <v>0.99995638644313301</v>
+        <v>0.51557507077567299</v>
       </c>
       <c r="O10" s="5">
-        <v>0.99995316356955599</v>
+        <v>0.78414711556651295</v>
       </c>
       <c r="P10" s="5">
-        <v>0.496225550320614</v>
+        <v>0.51557507077567999</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.51557507077567299</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.88609872342089502</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.579330709349136</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.515575070775671</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.82119278103682802</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0.88985604415226605</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.84429294548687595</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.65566256121265298</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0.52396266517305101</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.5267571926554</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.80246046263455595</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.62434550227963403</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.59378806339884205</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.75262931118533904</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0.51557507077567299</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.51557507077567299</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0.86629477881475303</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0.75481086613008397</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0.85925915939692699</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0.51557507077567299</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>0.51557507077567999</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>0.59511109199468204</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0.87607463827060705</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>0.51557507077567299</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>0.61610412894337796</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>0.620435768906478</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>0.57995505608680598</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0.83789499951123803</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>0.90864861060248403</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>0.88454509335218601</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>0.91709630098593398</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>0.80037915556976702</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>0.518310126261601</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>0.90226035400415605</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>0.87643357589055804</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>404794</v>
       </c>
       <c r="B11" s="5">
-        <v>0.99998291883161206</v>
+        <v>0.71693112002863402</v>
       </c>
       <c r="C11" s="5">
-        <v>0.99998216280695096</v>
+        <v>0.797458592182544</v>
       </c>
       <c r="D11" s="5">
-        <v>0.99994732055683</v>
+        <v>0.50845479308251196</v>
       </c>
       <c r="E11" s="5">
-        <v>0.99995520584153397</v>
+        <v>0.83520522990388602</v>
       </c>
       <c r="F11" s="5">
-        <v>0.99995370974812003</v>
+        <v>0.83289772518387395</v>
       </c>
       <c r="G11" s="5">
-        <v>0.99990693298334499</v>
+        <v>0.74705818690539405</v>
       </c>
       <c r="H11" s="5">
-        <v>0.99994360076101196</v>
+        <v>0.82251669264898997</v>
       </c>
       <c r="I11" s="5">
-        <v>0.99994133580558497</v>
+        <v>0.63451775990688997</v>
       </c>
       <c r="J11" s="5">
-        <v>0.99992803497445004</v>
+        <v>0.86510007811932899</v>
       </c>
       <c r="K11" s="5">
-        <v>0.99990098244689396</v>
+        <v>0.50215126380898201</v>
       </c>
       <c r="L11" s="5">
-        <v>0.99992517943010994</v>
+        <v>0.50215126380898201</v>
       </c>
       <c r="M11" s="5">
-        <v>0.99995609985587497</v>
+        <v>0.84289138238649097</v>
       </c>
       <c r="N11" s="5">
-        <v>0.99994963808984205</v>
+        <v>0.50215126380898201</v>
       </c>
       <c r="O11" s="5">
-        <v>0.99994591680579903</v>
+        <v>0.77051458488867097</v>
       </c>
       <c r="P11" s="5">
-        <v>0.49622322142259301</v>
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.87834334455589602</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.56561106395039196</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.80453523687714101</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0.87353895631477296</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.817214341949142</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.64798108198872995</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.51113887949074599</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.51413281504924402</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.78474267342564197</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.61674628671288201</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.58483710374384901</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.74327975323402795</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0.85348088476890305</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0.74547494884546806</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0.83175091652274102</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>0.58374501389947897</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0.86757473755854297</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0.50215126380898201</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0.60804712549356499</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>0.61266031341188798</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>0.56973532343039801</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0.83079225387650102</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>0.89687279457676405</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0.87065488772084199</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>0.90775876894096696</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>0.78007096359563299</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>0.50507712166242902</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>0.89018224165502302</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>0.85879507406254596</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>406528</v>
       </c>
       <c r="B12" s="5">
-        <v>0.99997352385183502</v>
+        <v>0.66288231208183002</v>
       </c>
       <c r="C12" s="5">
-        <v>0.99997235256831196</v>
+        <v>0.74482620544698597</v>
       </c>
       <c r="D12" s="5">
-        <v>0.99991834578398497</v>
+        <v>0.50449398837693504</v>
       </c>
       <c r="E12" s="5">
-        <v>0.99993056918607304</v>
+        <v>0.78865617041229596</v>
       </c>
       <c r="F12" s="5">
-        <v>0.99992824996991403</v>
+        <v>0.79638746626922896</v>
       </c>
       <c r="G12" s="5">
-        <v>0.99985574941834898</v>
+        <v>0.70518013820659797</v>
       </c>
       <c r="H12" s="5">
-        <v>0.99991258245248604</v>
+        <v>0.78641597953040099</v>
       </c>
       <c r="I12" s="5">
-        <v>0.99990906828089698</v>
+        <v>0.60484294990200105</v>
       </c>
       <c r="J12" s="5">
-        <v>0.99988845385678304</v>
+        <v>0.81127517437077301</v>
       </c>
       <c r="K12" s="5">
-        <v>0.99984652408834795</v>
+        <v>0.50031455237809297</v>
       </c>
       <c r="L12" s="5">
-        <v>0.99988403350627497</v>
+        <v>0.50031455237809297</v>
       </c>
       <c r="M12" s="5">
-        <v>0.999931953322584</v>
+        <v>0.79672861075985102</v>
       </c>
       <c r="N12" s="5">
-        <v>0.99992193873661805</v>
+        <v>0.50031455237809297</v>
       </c>
       <c r="O12" s="5">
-        <v>0.99991617190426096</v>
+        <v>0.71484381144244302</v>
       </c>
       <c r="P12" s="5">
-        <v>0.49621366211907603</v>
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.83189034346035695</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.54558840122196095</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.75198624231392996</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0.83432556678105596</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.76233207308572803</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.60155775569726599</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0.50627415444551105</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.50826033026555795</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.72170649432324396</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0.57853732781039402</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.55610630556530605</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0.67702846571436404</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0.81431305182656999</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0.67909923155631402</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.77709128352897305</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>0.55802225536886296</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0.818462816486907</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0.50031455237809297</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>0.57908763543137598</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>0.58284085690786902</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0.55012872962759296</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0.78773477853257901</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>0.861423585235088</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>0.82392539933727105</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>0.87666129763550704</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>0.72434138050694397</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>0.50225433333343905</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>0.85040616890231002</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>0.81210836426635502</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>406552</v>
       </c>
       <c r="B13" s="5">
-        <v>0.99996060829587297</v>
+        <v>0.54500104750195399</v>
       </c>
       <c r="C13" s="5">
-        <v>0.99995886679788903</v>
+        <v>0.57622654632409498</v>
       </c>
       <c r="D13" s="5">
-        <v>0.99987851322624099</v>
+        <v>0.50052428649720104</v>
       </c>
       <c r="E13" s="5">
-        <v>0.999896701660835</v>
+        <v>0.60390207089845105</v>
       </c>
       <c r="F13" s="5">
-        <v>0.99989325058811196</v>
+        <v>0.695980029983858</v>
       </c>
       <c r="G13" s="5">
-        <v>0.99978539182781501</v>
+        <v>0.61547233122748501</v>
       </c>
       <c r="H13" s="5">
-        <v>0.99986994323731404</v>
+        <v>0.68324020495624604</v>
       </c>
       <c r="I13" s="5">
-        <v>0.99986470794950399</v>
+        <v>0.55557931641939995</v>
       </c>
       <c r="J13" s="5">
-        <v>0.99983404186074198</v>
+        <v>0.53246442783871095</v>
       </c>
       <c r="K13" s="5">
-        <v>0.99977166221872005</v>
+        <v>0.50050000030120601</v>
       </c>
       <c r="L13" s="5">
-        <v>0.99982747693021801</v>
+        <v>0.50050000030120601</v>
       </c>
       <c r="M13" s="5">
-        <v>0.99989875770177306</v>
+        <v>0.61161537243544395</v>
       </c>
       <c r="N13" s="5">
-        <v>0.99988386033585497</v>
+        <v>0.50050000030120601</v>
       </c>
       <c r="O13" s="5">
-        <v>0.99987528306714502</v>
+        <v>0.56584844295778203</v>
       </c>
       <c r="P13" s="5">
-        <v>0.49620052075419002</v>
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.608889423321607</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.51263539892981602</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.56732083295054103</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0.66828648345401198</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0.52797578960083402</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.50898333970838205</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.50053463167232304</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.50054617543336999</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.51782649694398497</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0.50492980685464295</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0.50282476655830299</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.507597465800945</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0.68393143785314803</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0.50772879096241696</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0.514825808472963</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>0.51268124514455404</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>0.59815406439274199</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>0.50050000030120601</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>0.52807412305638102</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>0.53016814448495098</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>0.51750594491642499</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0.62956605686536604</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>0.67130509516254899</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>0.63338761250993103</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>0.68625196345512296</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>0.56968522774563701</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>0.50051127160543096</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0.66119070971142702</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>0.62184217802352704</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>406576</v>
       </c>
       <c r="B14" s="5">
-        <v>0.99684375148722004</v>
+        <v>0.95366480738427095</v>
       </c>
       <c r="C14" s="5">
-        <v>0.99631846284669201</v>
+        <v>0.98183873533736699</v>
       </c>
       <c r="D14" s="5">
-        <v>0.99339537748797102</v>
+        <v>0.554696414758723</v>
       </c>
       <c r="E14" s="5">
-        <v>0.99903001685852899</v>
+        <v>0.98535233829569402</v>
       </c>
       <c r="F14" s="5">
-        <v>0.99560838735066404</v>
+        <v>0.98391798775999495</v>
       </c>
       <c r="G14" s="5">
-        <v>0.99994659284779497</v>
+        <v>0.95442101774015098</v>
       </c>
       <c r="H14" s="5">
-        <v>0.988233189121553</v>
+        <v>0.98385149370647595</v>
       </c>
       <c r="I14" s="5">
-        <v>0.98779490421449101</v>
+        <v>0.796018384772613</v>
       </c>
       <c r="J14" s="5">
-        <v>0.98501945124698198</v>
+        <v>0.98849593729385798</v>
       </c>
       <c r="K14" s="5">
-        <v>0.97765872725654801</v>
+        <v>0.54505699033116495</v>
       </c>
       <c r="L14" s="5">
-        <v>0.95698396883709602</v>
+        <v>0.54502277175984704</v>
       </c>
       <c r="M14" s="5">
-        <v>0.99230892160209405</v>
+        <v>0.98765215983219001</v>
       </c>
       <c r="N14" s="5">
-        <v>0.99486686455740103</v>
+        <v>0.545120705769224</v>
       </c>
       <c r="O14" s="5">
-        <v>0.98611517114830105</v>
+        <v>0.97701049571139698</v>
       </c>
       <c r="P14" s="5">
-        <v>0.49279758072445801</v>
+        <v>0.54507313759195997</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.54507600655876998</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.990736897159744</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.65564987411374898</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.54500146264969096</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0.98437967297484097</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0.98970458949700502</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0.98166280323098598</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.82822643661530304</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.560364724459262</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.56702759009952197</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.98576627216608304</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0.75093884914283904</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0.67787169159976302</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0.989898827774504</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0.54499762719922595</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0.54505152622724495</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0.98538864039880703</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0.99213519515448501</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.98679642559380998</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>0.54507610687914498</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0.54503682357739502</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0.69452080176794195</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0.98862962446056502</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0.54506376807323997</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0.73799235166374999</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>0.75764250687164003</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0.68202752250902698</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0.98382622274767395</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>0.99216783973935696</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0.98960020973906304</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>0.99294720080613696</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>0.97695463994259901</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>0.54851782122099602</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>0.99116957330631805</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>0.98747366654825497</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>400108</v>
       </c>
       <c r="B15" s="5">
-        <v>0.99125296847149702</v>
+        <v>0.918933168201712</v>
       </c>
       <c r="C15" s="5">
-        <v>0.99101726859386396</v>
+        <v>0.95042853385912396</v>
       </c>
       <c r="D15" s="5">
-        <v>0.97289508892408605</v>
+        <v>0.54118618487188797</v>
       </c>
       <c r="E15" s="5">
-        <v>0.976978511192925</v>
+        <v>0.96245457451348604</v>
       </c>
       <c r="F15" s="5">
-        <v>0.97668060945317103</v>
+        <v>0.95444300914074698</v>
       </c>
       <c r="G15" s="5">
-        <v>0.95403283419585605</v>
+        <v>0.91980377305405103</v>
       </c>
       <c r="H15" s="5">
-        <v>0.97188755385780301</v>
+        <v>0.95139308230216102</v>
       </c>
       <c r="I15" s="5">
-        <v>0.96964740058744403</v>
+        <v>0.84425643108373305</v>
       </c>
       <c r="J15" s="5">
-        <v>0.96313248077034597</v>
+        <v>0.97292255837837205</v>
       </c>
       <c r="K15" s="5">
-        <v>0.95053328315150398</v>
+        <v>0.50144371547992905</v>
       </c>
       <c r="L15" s="5">
-        <v>0.96381357084502495</v>
+        <v>0.50144337872883105</v>
       </c>
       <c r="M15" s="5">
-        <v>0.97708460578126299</v>
+        <v>0.96443120867326604</v>
       </c>
       <c r="N15" s="5">
-        <v>0.97461130236928895</v>
+        <v>0.501443692938352</v>
       </c>
       <c r="O15" s="5">
-        <v>0.97315096875882401</v>
+        <v>0.940338610086632</v>
       </c>
       <c r="P15" s="5">
-        <v>0.487357186633599</v>
+        <v>0.50144375917006001</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.50144412291435103</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.97434623579222801</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.76518053717163503</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.50144377286207598</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.95377446738697502</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0.97183206205273298</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0.96087162963996597</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.88708656467643499</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.55777255079211097</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.57588146411269203</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.95030314299822805</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0.86094631192280902</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.81994747827805503</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0.93650313801197105</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0.50144425703745699</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.50144346230083103</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0.96348237361656197</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.93729458217481598</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.96568234574765999</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0.50144417018727105</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>0.50144339358811396</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0.80629661994811197</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0.97161094488828303</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0.50144334278222402</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>0.82996184311398302</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>0.83494223791240696</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>0.76476314050764105</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>0.95916528997211803</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>0.97857591167518798</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>0.97148270501762501</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>0.98069184884706295</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>0.944080984142182</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>0.51998093897044395</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>0.97671989746439003</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>0.96867569016187904</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>400114</v>
       </c>
       <c r="B16" s="5">
-        <v>0.99996455117504901</v>
+        <v>0.63561996060621995</v>
       </c>
       <c r="C16" s="5">
-        <v>0.999962983672675</v>
+        <v>0.70919538392853598</v>
       </c>
       <c r="D16" s="5">
-        <v>0.99989067337328896</v>
+        <v>0.50722260141867903</v>
       </c>
       <c r="E16" s="5">
-        <v>0.99990704063590496</v>
+        <v>0.75486123317033604</v>
       </c>
       <c r="F16" s="5">
-        <v>0.99990393514347498</v>
+        <v>0.77609814945303801</v>
       </c>
       <c r="G16" s="5">
-        <v>0.99980686989689804</v>
+        <v>0.68639270043891898</v>
       </c>
       <c r="H16" s="5">
-        <v>0.99988295989662002</v>
+        <v>0.76492792424084399</v>
       </c>
       <c r="I16" s="5">
-        <v>0.99987825049844403</v>
+        <v>0.59692615359505896</v>
       </c>
       <c r="J16" s="5">
-        <v>0.99985065266430895</v>
+        <v>0.78191991338563005</v>
       </c>
       <c r="K16" s="5">
-        <v>0.999794515670826</v>
+        <v>0.50431739286240196</v>
       </c>
       <c r="L16" s="5">
-        <v>0.99984474165581105</v>
+        <v>0.50431739286240196</v>
       </c>
       <c r="M16" s="5">
-        <v>0.99990889180129205</v>
+        <v>0.76378750115034899</v>
       </c>
       <c r="N16" s="5">
-        <v>0.99989548487037005</v>
+        <v>0.50431739286240196</v>
       </c>
       <c r="O16" s="5">
-        <v>0.99988776535961199</v>
+        <v>0.68170890143622698</v>
       </c>
       <c r="P16" s="5">
-        <v>0.49620453255682201</v>
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.79875201404573704</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.540776489995899</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0.71242859106090695</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0.80836203925127803</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0.71880906888874196</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.57873437059931898</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.50846019803874898</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.50984105024399795</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.67592122047946601</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0.56068900560662405</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0.54405884856431996</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.63506983802678696</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.789694224828144</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0.63678642371044503</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.73676842170785295</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0.54911081157188402</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0.78264587927483198</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0.50431739286240196</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0.56919876501839195</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0.57257285480242204</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>0.54517892534507195</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>0.75582844751927603</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>0.83450150083715302</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>0.79704714118241504</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>0.85006775763785203</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>0.69241876076056097</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>0.50566578533927897</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>0.82401350032834397</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>0.78401810749131295</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>400134</v>
       </c>
       <c r="B17" s="5">
-        <v>0.99999938462976501</v>
+        <v>0.98729927260996397</v>
       </c>
       <c r="C17" s="5">
-        <v>0.99999934910019195</v>
+        <v>0.98943124158881202</v>
       </c>
       <c r="D17" s="5">
-        <v>0.99999810352079799</v>
+        <v>0.53996316222841401</v>
       </c>
       <c r="E17" s="5">
-        <v>0.99999836743186599</v>
+        <v>0.99179594430372697</v>
       </c>
       <c r="F17" s="5">
-        <v>0.99999832708567205</v>
+        <v>0.98636182064664901</v>
       </c>
       <c r="G17" s="5">
-        <v>0.999996566432792</v>
+        <v>0.97926210504357503</v>
       </c>
       <c r="H17" s="5">
-        <v>0.99999793126604697</v>
+        <v>0.98868206255640401</v>
       </c>
       <c r="I17" s="5">
-        <v>0.99999790088469198</v>
+        <v>0.95520339199556803</v>
       </c>
       <c r="J17" s="5">
-        <v>0.99999739885276095</v>
+        <v>0.995302522762472</v>
       </c>
       <c r="K17" s="5">
-        <v>0.99999638501056998</v>
+        <v>0.499968938440981</v>
       </c>
       <c r="L17" s="5">
-        <v>0.99999720499850997</v>
+        <v>0.499968938440981</v>
       </c>
       <c r="M17" s="5">
-        <v>0.99999842695367502</v>
+        <v>0.99363342221584505</v>
       </c>
       <c r="N17" s="5">
-        <v>0.99999817630737897</v>
+        <v>0.499968938440981</v>
       </c>
       <c r="O17" s="5">
-        <v>0.99999802360880297</v>
+        <v>0.98325868257922799</v>
       </c>
       <c r="P17" s="5">
-        <v>0.496239974067474</v>
+        <v>0.499968938440981</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.99544586925578604</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.83057930520429102</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0.990503332690302</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0.99470097391032597</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0.99279720891545897</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.95452236476160202</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.55694109273009695</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.57582342046867796</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.98739822741365102</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0.97639587627318203</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.94161627229481204</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0.98958881140530497</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0.99264352306831505</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>0.98954101856382304</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0.99462157190761702</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>0.499968938440981</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>0.91140808259942796</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0.99453298525357403</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0.499968938440982</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>0.947710462277496</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>0.95388167928050804</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>0.82870442629146401</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>0.99017334855033801</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>0.99599409760505297</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>0.99502342378070396</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>0.99659725887089701</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>0.984430305367197</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>0.51854852340192503</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>0.99574410173138295</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>0.99281413615870595</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>400138</v>
       </c>
       <c r="B18" s="5">
-        <v>0.83112109261854195</v>
+        <v>0.55009221598859304</v>
       </c>
       <c r="C18" s="5">
-        <v>0.87923013603956301</v>
+        <v>0.58443940472403999</v>
       </c>
       <c r="D18" s="5">
-        <v>0.558662009250391</v>
+        <v>0.50069611856278295</v>
       </c>
       <c r="E18" s="5">
-        <v>0.67758363903887697</v>
+        <v>0.61412241981451798</v>
       </c>
       <c r="F18" s="5">
-        <v>0.65746083950546796</v>
+        <v>0.70070065769771495</v>
       </c>
       <c r="G18" s="5">
-        <v>0.57648304871440903</v>
+        <v>0.61908035647834603</v>
       </c>
       <c r="H18" s="5">
-        <v>0.67856753778315004</v>
+        <v>0.68797867101806598</v>
       </c>
       <c r="I18" s="5">
-        <v>0.47988181889576298</v>
+        <v>0.55747812735116098</v>
       </c>
       <c r="J18" s="5">
-        <v>0.54245508158995903</v>
+        <v>0.55050093522466204</v>
       </c>
       <c r="K18" s="5">
-        <v>0.51966682619196103</v>
+        <v>0.50049661780860899</v>
       </c>
       <c r="L18" s="5">
-        <v>0.70409133396756496</v>
+        <v>0.50049661780860899</v>
       </c>
       <c r="M18" s="5">
-        <v>0.547865111122537</v>
+        <v>0.62217578399254903</v>
       </c>
       <c r="N18" s="5">
-        <v>0.61608807524082898</v>
+        <v>0.50049661780860899</v>
       </c>
       <c r="O18" s="5">
-        <v>0.67905997433012999</v>
+        <v>0.57267441992091705</v>
       </c>
       <c r="P18" s="5">
-        <v>0.33880423919734098</v>
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.62404128381247403</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.51395025712305498</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0.57671110208007603</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0.67856846257141201</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0.54027342152811497</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.512919084835886</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0.50078136942598905</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.50087620702058699</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.52756949603577896</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0.50805065177965703</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0.50507578973150802</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0.51524533793262595</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0.69103785812921903</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0.51548038417870601</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0.52937857556411105</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>0.51455016043356205</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0.61256811232486097</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0.50049661780860899</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>0.530168889612042</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>0.53232956244560303</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>0.51883811317021</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>0.63812467111170101</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>0.68506521360098105</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>0.64535482486943596</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>0.70047216545934998</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0.57672028758199301</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>0.50058946977302998</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>0.67438684441841301</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>0.63316105097879005</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>400156</v>
       </c>
       <c r="B19" s="5">
-        <v>0.96194166902280998</v>
+        <v>0.726405875330569</v>
       </c>
       <c r="C19" s="5">
-        <v>0.94816837684523803</v>
+        <v>0.88237331929604501</v>
       </c>
       <c r="D19" s="5">
-        <v>3.1355507339106803E-2</v>
+        <v>0.52122213425425201</v>
       </c>
       <c r="E19" s="5">
-        <v>0.96873859935304196</v>
+        <v>0.92460226077285901</v>
       </c>
       <c r="F19" s="5">
-        <v>0.99698830471224897</v>
+        <v>0.93570387429913204</v>
       </c>
       <c r="G19" s="5">
-        <v>0.998746160315926</v>
+        <v>0.75275211425667998</v>
       </c>
       <c r="H19" s="5">
-        <v>0.56014152345888502</v>
+        <v>0.93100646360490802</v>
       </c>
       <c r="I19" s="5">
-        <v>0.97395132192356004</v>
+        <v>0.61017661719999505</v>
       </c>
       <c r="J19" s="5">
-        <v>0.95530731852289497</v>
+        <v>0.95320985924511004</v>
       </c>
       <c r="K19" s="5">
-        <v>8.7113212129994802E-2</v>
+        <v>0.516726036453796</v>
       </c>
       <c r="L19" s="5">
-        <v>0.87726771033152595</v>
+        <v>0.51672775058712095</v>
       </c>
       <c r="M19" s="5">
-        <v>0.99956022624486895</v>
+        <v>0.93144387894538705</v>
       </c>
       <c r="N19" s="5">
-        <v>0.85726579459948404</v>
+        <v>0.51672981280434105</v>
       </c>
       <c r="O19" s="5">
-        <v>0.85401772516557295</v>
+        <v>0.83181722705718097</v>
       </c>
       <c r="P19" s="5">
-        <v>0.45070414127793701</v>
+        <v>0.51672504762194704</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.51672455162465303</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.95950278296849001</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.58218325744302302</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.51672729730371603</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.90166910029615399</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0.95840179762982403</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0.92000476709401202</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.63936813008873095</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.52488250620554899</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.525161927164423</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.85541980856157895</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0.60417203928983099</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0.58194388996958601</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0.74490707663019595</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0.51672505138020697</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0.51672517516483296</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0.94379077627333297</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0.74618879542102201</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0.93006919977321501</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0.51672428531872805</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>0.516724279772794</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>0.59241556709949905</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0.95330788686652601</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>0.51672869988463899</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0.61276531808462997</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>0.61490708094526803</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0.57800724489100197</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0.92727657113338502</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>0.97667991321255199</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>0.95108014054790402</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>0.99826813398784398</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0.84960752996887801</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>0.52194701538995303</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>0.967965944322843</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>0.94259092602991301</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>400158</v>
       </c>
       <c r="B20" s="5">
-        <v>0.83098767818052</v>
+        <v>0.56287312222404196</v>
       </c>
       <c r="C20" s="5">
-        <v>0.87874736380362495</v>
+        <v>0.60535869666755004</v>
       </c>
       <c r="D20" s="5">
-        <v>0.55519117859308997</v>
+        <v>0.50115657515342504</v>
       </c>
       <c r="E20" s="5">
-        <v>0.67620969235610495</v>
+        <v>0.64065329415560102</v>
       </c>
       <c r="F20" s="5">
-        <v>0.65546176669032297</v>
+        <v>0.71659639871443404</v>
       </c>
       <c r="G20" s="5">
-        <v>0.57377509766472701</v>
+        <v>0.63000332414851501</v>
       </c>
       <c r="H20" s="5">
-        <v>0.67766365163545195</v>
+        <v>0.70369340342999798</v>
       </c>
       <c r="I20" s="5">
-        <v>0.478006905429392</v>
+        <v>0.56274019073394399</v>
       </c>
       <c r="J20" s="5">
-        <v>0.53954827736632704</v>
+        <v>0.59327597569417601</v>
       </c>
       <c r="K20" s="5">
-        <v>0.51741567037979597</v>
+        <v>0.50055431552248997</v>
       </c>
       <c r="L20" s="5">
-        <v>0.70388593270081601</v>
+        <v>0.50055431316588095</v>
       </c>
       <c r="M20" s="5">
-        <v>0.54400893280104701</v>
+        <v>0.64970345023766396</v>
       </c>
       <c r="N20" s="5">
-        <v>0.61312981410963097</v>
+        <v>0.50055430258919198</v>
       </c>
       <c r="O20" s="5">
-        <v>0.67812120614022398</v>
+        <v>0.59003732397626396</v>
       </c>
       <c r="P20" s="5">
-        <v>0.33819403202973503</v>
+        <v>0.50055430645883103</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.500554313384861</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.66224619232273896</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.517312750059441</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.50055431836647901</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0.59999426671870104</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0.70698360672254301</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0.56975335490481505</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.52242498934581105</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.501423960574512</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.50171526047874504</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.550913154627657</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0.51556978616478999</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0.51051473824150795</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0.53352554151629805</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>0.50055431389117</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0.50055431240842096</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0.71196502896605296</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>0.53399838603521499</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0.563905695240567</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0.50055431974936504</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>0.50055432068031902</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>0.51919087655921203</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0.648531940036151</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0.50055431123946703</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>0.53553513590017698</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>0.53788588367795398</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>0.52224899166290095</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>0.66158436602440096</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>0.72186129382873698</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>0.67710275424525201</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>0.73843071212978195</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>0.59481638000619097</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>0.50083169514777903</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>0.70974224814637599</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>0.66304851135600096</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>400160</v>
       </c>
       <c r="B21" s="5">
-        <v>0.99183648355179599</v>
+        <v>0.93092302806563298</v>
       </c>
       <c r="C21" s="5">
-        <v>0.99162787746792003</v>
+        <v>0.95025254121049196</v>
       </c>
       <c r="D21" s="5">
-        <v>0.97489164150548901</v>
+        <v>0.53822909391199003</v>
       </c>
       <c r="E21" s="5">
-        <v>0.978876049626628</v>
+        <v>0.96484841475584504</v>
       </c>
       <c r="F21" s="5">
-        <v>0.97806786084373498</v>
+        <v>0.95460928611067097</v>
       </c>
       <c r="G21" s="5">
-        <v>0.95693115468627599</v>
+        <v>0.92322406366142895</v>
       </c>
       <c r="H21" s="5">
-        <v>0.97371033732799495</v>
+        <v>0.95223183345500395</v>
       </c>
       <c r="I21" s="5">
-        <v>0.97167849189423605</v>
+        <v>0.83908354815460795</v>
       </c>
       <c r="J21" s="5">
-        <v>0.96602955203848995</v>
+        <v>0.97544287553333298</v>
       </c>
       <c r="K21" s="5">
-        <v>0.95357219337461496</v>
+        <v>0.51152329589558299</v>
       </c>
       <c r="L21" s="5">
-        <v>0.96608017520978795</v>
+        <v>0.51152190970490696</v>
       </c>
       <c r="M21" s="5">
-        <v>0.97883714385263598</v>
+        <v>0.96694697637597105</v>
       </c>
       <c r="N21" s="5">
-        <v>0.97615933706969304</v>
+        <v>0.51151727707072303</v>
       </c>
       <c r="O21" s="5">
-        <v>0.97471996121861304</v>
+        <v>0.93737489592791601</v>
       </c>
       <c r="P21" s="5">
-        <v>0.48795804489906702</v>
+        <v>0.51151253283282105</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.51152019769855195</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.97525934342728204</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.73246338625243701</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.51151870485685702</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0.95657893075431599</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0.97508344190434004</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0.97081952115764003</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.91895325431157404</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.54963025660295795</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.56209678155192799</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0.94766257832613199</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0.87778480969966999</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.80758813015348496</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0.94189056391637505</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0.511518010603638</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.51151864253432999</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0.96737484123706297</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0.94156761414660495</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.96482948857561301</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0.51151638117201004</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0.51151698779180799</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>0.78671476883495195</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0.97454714385597396</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0.51151918321441703</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>0.82122688596848703</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>0.82852086386245705</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>0.73298566723763703</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>0.96058339375820201</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>0.98034889127164004</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>0.97446513864045103</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>0.98203148768212001</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>0.94119781159091098</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>0.523905637428422</v>
+      </c>
+      <c r="AX21" s="5">
+        <v>0.97767697440937396</v>
+      </c>
+      <c r="AY21" s="5">
+        <v>0.97184870060629602</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>400173</v>
       </c>
       <c r="B22" s="5">
-        <v>0.99999944213805203</v>
+        <v>0.93842860508112802</v>
       </c>
       <c r="C22" s="5">
-        <v>0.99999941742568599</v>
+        <v>0.96183783524600197</v>
       </c>
       <c r="D22" s="5">
-        <v>0.999998279520391</v>
+        <v>0.53624243052793596</v>
       </c>
       <c r="E22" s="5">
-        <v>0.99999853700802499</v>
+        <v>0.97023028447375004</v>
       </c>
       <c r="F22" s="5">
-        <v>0.99999848815572401</v>
+        <v>0.96362318133383895</v>
       </c>
       <c r="G22" s="5">
-        <v>0.99999696029209695</v>
+        <v>0.93763130429574904</v>
       </c>
       <c r="H22" s="5">
-        <v>0.99999815795027502</v>
+        <v>0.96240597567666397</v>
       </c>
       <c r="I22" s="5">
-        <v>0.99999808409777702</v>
+        <v>0.883757642325668</v>
       </c>
       <c r="J22" s="5">
-        <v>0.99999764961943804</v>
+        <v>0.97903744722108299</v>
       </c>
       <c r="K22" s="5">
-        <v>0.99999676601996601</v>
+        <v>0.50596666292771997</v>
       </c>
       <c r="L22" s="5">
-        <v>0.99999755614179797</v>
+        <v>0.50596666292771997</v>
       </c>
       <c r="M22" s="5">
-        <v>0.99999856626621697</v>
+        <v>0.97253317358383995</v>
       </c>
       <c r="N22" s="5">
-        <v>0.99999835518205604</v>
+        <v>0.50596666292771997</v>
       </c>
       <c r="O22" s="5">
-        <v>0.99999823359483797</v>
+        <v>0.95169955335081602</v>
       </c>
       <c r="P22" s="5">
-        <v>0.49624003387645899</v>
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.97987717824465503</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.76312617767419699</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.96474446633024502</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0.97768792587343001</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0.96983603887368397</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.90076783555415596</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0.54910120465208201</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.56341019674756199</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.96078313760155398</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0.89843689869482801</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0.85229827804730895</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0.95058707085905703</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.97156600928580705</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>0.95140419496631501</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.97333830281493205</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>0.82921357608496604</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0.97828987482609298</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0.50596666292771997</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>0.86714875683298998</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>0.87410813011089905</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>0.76334062094927801</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>0.96777533311351605</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>0.98344298638435701</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>0.97820235458558802</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>0.98499108611188901</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>0.95503289503918698</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>0.52002988467683398</v>
+      </c>
+      <c r="AX22" s="5">
+        <v>0.98183955364043496</v>
+      </c>
+      <c r="AY22" s="5">
+        <v>0.97535623543689198</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>400177</v>
       </c>
       <c r="B23" s="5">
-        <v>0.99558474016841203</v>
+        <v>0.80223490831647204</v>
       </c>
       <c r="C23" s="5">
-        <v>0.99543353791544498</v>
+        <v>0.86898566213722295</v>
       </c>
       <c r="D23" s="5">
-        <v>0.98637869470663997</v>
+        <v>0.51380784582419303</v>
       </c>
       <c r="E23" s="5">
-        <v>0.988501612695868</v>
+        <v>0.89807551041057199</v>
       </c>
       <c r="F23" s="5">
-        <v>0.98809617849848197</v>
+        <v>0.88659120634084199</v>
       </c>
       <c r="G23" s="5">
-        <v>0.97634986439164995</v>
+        <v>0.81459616457310402</v>
       </c>
       <c r="H23" s="5">
-        <v>0.985602199466174</v>
+        <v>0.87946903081364103</v>
       </c>
       <c r="I23" s="5">
-        <v>0.98475411171322402</v>
+        <v>0.70097926266417099</v>
       </c>
       <c r="J23" s="5">
-        <v>0.98148715083605698</v>
+        <v>0.92187374518448095</v>
       </c>
       <c r="K23" s="5">
-        <v>0.97466728626461097</v>
+        <v>0.50050485504335696</v>
       </c>
       <c r="L23" s="5">
-        <v>0.98119270355530497</v>
+        <v>0.50050485504335696</v>
       </c>
       <c r="M23" s="5">
-        <v>0.988606156925389</v>
+        <v>0.90311610365251305</v>
       </c>
       <c r="N23" s="5">
-        <v>0.98703423982294802</v>
+        <v>0.50050485504335696</v>
       </c>
       <c r="O23" s="5">
-        <v>0.98617666622597999</v>
+        <v>0.84646917961254398</v>
       </c>
       <c r="P23" s="5">
-        <v>0.49175458900137903</v>
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.92747677591920696</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.61827339422145999</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.87609530395171198</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0.92281881555609901</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0.89071544927158397</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.74241401783754202</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0.51946147441346902</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.52575289206674902</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.864591015748853</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0.70478685375674399</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0.65836064781638104</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0.83241077672489305</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0.90474237701055304</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0.83414093645725096</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0.90223118208993303</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>0.64966547170154298</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0.92020531570186803</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>0.50050485504335696</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>0.67749929995207103</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>0.68323439455867196</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0.62051326684234298</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0.89209879561788497</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>0.93964419869973803</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>0.92073199038729603</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>0.94531820165938196</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>0.85454153728978799</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>0.50668187520796704</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>0.93468561335114797</v>
+      </c>
+      <c r="AY23" s="5">
+        <v>0.91357428533374996</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>404104</v>
       </c>
       <c r="B24" s="5">
-        <v>0.99998398813545297</v>
+        <v>0.71586711852595297</v>
       </c>
       <c r="C24" s="5">
-        <v>0.99998327939919496</v>
+        <v>0.80542089730844901</v>
       </c>
       <c r="D24" s="5">
-        <v>0.99995061837177002</v>
+        <v>0.52017891907348801</v>
       </c>
       <c r="E24" s="5">
-        <v>0.99995800994209005</v>
+        <v>0.84535259774446403</v>
       </c>
       <c r="F24" s="5">
-        <v>0.99995660752142901</v>
+        <v>0.83863017088012803</v>
       </c>
       <c r="G24" s="5">
-        <v>0.99991275873179697</v>
+        <v>0.74137298114391903</v>
       </c>
       <c r="H24" s="5">
-        <v>0.99994713132635904</v>
+        <v>0.82611297958100405</v>
       </c>
       <c r="I24" s="5">
-        <v>0.99994500832084099</v>
+        <v>0.63995889213374701</v>
       </c>
       <c r="J24" s="5">
-        <v>0.99993254000962495</v>
+        <v>0.87355628196332102</v>
       </c>
       <c r="K24" s="5">
-        <v>0.99990718086708696</v>
+        <v>0.51482402866545696</v>
       </c>
       <c r="L24" s="5">
-        <v>0.99992986282801</v>
+        <v>0.51482402866545696</v>
       </c>
       <c r="M24" s="5">
-        <v>0.99995884809814894</v>
+        <v>0.85147597346816595</v>
       </c>
       <c r="N24" s="5">
-        <v>0.99995279078974897</v>
+        <v>0.51482402866545696</v>
       </c>
       <c r="O24" s="5">
-        <v>0.99994930231577095</v>
+        <v>0.77385408529281896</v>
       </c>
       <c r="P24" s="5">
-        <v>0.49622430943310403</v>
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.87803026987758503</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.57432590251789095</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.81129491249751096</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0.88322054501778202</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0.83404387064253804</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.64417056349653401</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.52245363521872001</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.52499134959910299</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.78838121622768798</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0.61473474777464898</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.58631496173541897</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0.73665253351858995</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0.860362367869413</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0.73893177680734101</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0.85153263122643097</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>0.58881194229859901</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0.86728721292701705</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>0.51482402866545696</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>0.61119215174998798</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>0.6154745030273</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>0.57632934914073197</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>0.83090832827190597</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>0.90225929803966598</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>0.87795382444686298</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>0.912280945241839</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>0.79016973035647098</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>0.51731017502419296</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>0.89519207296228098</v>
+      </c>
+      <c r="AY24" s="5">
+        <v>0.870322120660321</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>404109</v>
       </c>
       <c r="B25" s="5">
-        <v>0.99997965167335001</v>
+        <v>0.69233386298155997</v>
       </c>
       <c r="C25" s="5">
-        <v>0.99997875119851498</v>
+        <v>0.77790822780937496</v>
       </c>
       <c r="D25" s="5">
-        <v>0.99993724443407195</v>
+        <v>0.50794602985038795</v>
       </c>
       <c r="E25" s="5">
-        <v>0.99994663821918695</v>
+        <v>0.81715717367291296</v>
       </c>
       <c r="F25" s="5">
-        <v>0.99994485589873205</v>
+        <v>0.817435058639989</v>
       </c>
       <c r="G25" s="5">
-        <v>0.99988913320043404</v>
+        <v>0.729397356201961</v>
       </c>
       <c r="H25" s="5">
-        <v>0.99993281435449299</v>
+        <v>0.80726602131510095</v>
       </c>
       <c r="I25" s="5">
-        <v>0.99993011468406101</v>
+        <v>0.62127797953734598</v>
       </c>
       <c r="J25" s="5">
-        <v>0.99991427031048197</v>
+        <v>0.84445726337349802</v>
       </c>
       <c r="K25" s="5">
-        <v>0.99988204399156999</v>
+        <v>0.50280345504843604</v>
       </c>
       <c r="L25" s="5">
-        <v>0.99991087016537195</v>
+        <v>0.50280345504843604</v>
       </c>
       <c r="M25" s="5">
-        <v>0.99994770279111</v>
+        <v>0.82417770510854405</v>
       </c>
       <c r="N25" s="5">
-        <v>0.99994000543575001</v>
+        <v>0.50280345504843604</v>
       </c>
       <c r="O25" s="5">
-        <v>0.99993557312902703</v>
+        <v>0.74789474220986696</v>
       </c>
       <c r="P25" s="5">
-        <v>0.496219897116074</v>
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.85989662748961904</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.55657829524327096</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0.78544153383106896</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0.85868497635135899</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0.79881202710938204</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.62517225530464804</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0.51013605513701599</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0.51257929545317005</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0.76046586906484204</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0.59794751439725102</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0.57095356911129302</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0.71353628758642396</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0.83763203745223103</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0.71582732370412605</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0.812679668454652</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>0.57166121619425903</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0.84716912609088901</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>0.50280345504843604</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>0.59471740513633298</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>0.59893592715208599</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>0.56111646477251897</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>0.81333534498083404</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>0.886915050398978</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>0.84989040682342498</v>
+      </c>
+      <c r="AU25" s="5">
+        <v>0.89345816116181198</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>0.75816287147907802</v>
+      </c>
+      <c r="AW25" s="5">
+        <v>0.50519034581311595</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>0.87740460755736405</v>
+      </c>
+      <c r="AY25" s="5">
+        <v>0.83826996150617406</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>404111</v>
       </c>
       <c r="B26" s="5">
-        <v>0.99999928565222596</v>
+        <v>0.93472749818525702</v>
       </c>
       <c r="C26" s="5">
-        <v>0.99999925400812995</v>
+        <v>0.98518981328222199</v>
       </c>
       <c r="D26" s="5">
-        <v>0.99999779690952195</v>
+        <v>0.538663302640361</v>
       </c>
       <c r="E26" s="5">
-        <v>0.999998126625807</v>
+        <v>0.98901123181348405</v>
       </c>
       <c r="F26" s="5">
-        <v>0.99999806407551595</v>
+        <v>0.97664227803326797</v>
       </c>
       <c r="G26" s="5">
-        <v>0.99999610762512503</v>
+        <v>0.941408665727276</v>
       </c>
       <c r="H26" s="5">
-        <v>0.99999764123275003</v>
+        <v>0.97396622411261002</v>
       </c>
       <c r="I26" s="5">
-        <v>0.99999754666646001</v>
+        <v>0.90339845679220598</v>
       </c>
       <c r="J26" s="5">
-        <v>0.99999699031835898</v>
+        <v>0.99382086224254496</v>
       </c>
       <c r="K26" s="5">
-        <v>0.99999585885571896</v>
+        <v>0.50108805817700197</v>
       </c>
       <c r="L26" s="5">
-        <v>0.99999687062041798</v>
+        <v>0.50108805817700197</v>
       </c>
       <c r="M26" s="5">
-        <v>0.99999816408874598</v>
+        <v>0.99358306782627903</v>
       </c>
       <c r="N26" s="5">
-        <v>0.99999789379538395</v>
+        <v>0.50108805817700197</v>
       </c>
       <c r="O26" s="5">
-        <v>0.99999773811138704</v>
+        <v>0.97444741854016004</v>
       </c>
       <c r="P26" s="5">
-        <v>0.496239874651416</v>
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.99412121693449096</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.80808639368044599</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0.99015823071160403</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0.99418221299759602</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0.98872726330920702</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0.97385529466227805</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0.55456957509393601</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0.57223321336433597</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0.99001374907530504</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0.99216515457828103</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0.92309562556381697</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0.98610283270763199</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0.99045306217711804</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0.98769458606321303</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0.992794293873692</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>0.88588560870786603</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0.99395051129980805</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>0.50108805817700197</v>
+      </c>
+      <c r="AO26" s="5">
+        <v>0.91500504945045902</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>0.92089565324814204</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>0.804357222815551</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>0.98193617388369703</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>0.994571886690919</v>
+      </c>
+      <c r="AT26" s="5">
+        <v>0.99269601838618704</v>
+      </c>
+      <c r="AU26" s="5">
+        <v>0.99504401012063903</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>0.97425983150668305</v>
+      </c>
+      <c r="AW26" s="5">
+        <v>0.51856356401474002</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>0.994113802917441</v>
+      </c>
+      <c r="AY26" s="5">
+        <v>0.994006389270221</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>404147</v>
       </c>
       <c r="B27" s="5">
-        <v>0.99999935634982595</v>
+        <v>0.991121065391245</v>
       </c>
       <c r="C27" s="5">
-        <v>0.99999931891636396</v>
+        <v>0.98761925986714905</v>
       </c>
       <c r="D27" s="5">
-        <v>0.99999801649578401</v>
+        <v>0.54799535147368295</v>
       </c>
       <c r="E27" s="5">
-        <v>0.99999829790052397</v>
+        <v>0.99383987372141103</v>
       </c>
       <c r="F27" s="5">
-        <v>0.999998243127727</v>
+        <v>0.989264661256684</v>
       </c>
       <c r="G27" s="5">
-        <v>0.99999640412007096</v>
+        <v>0.981452687067778</v>
       </c>
       <c r="H27" s="5">
-        <v>0.999997835029375</v>
+        <v>0.98774773790842696</v>
       </c>
       <c r="I27" s="5">
-        <v>0.99999780705253705</v>
+        <v>0.96102745532252298</v>
       </c>
       <c r="J27" s="5">
-        <v>0.99999727445925102</v>
+        <v>0.99600376002252999</v>
       </c>
       <c r="K27" s="5">
-        <v>0.99999621647494696</v>
+        <v>0.50611028033836802</v>
       </c>
       <c r="L27" s="5">
-        <v>0.99999707137810401</v>
+        <v>0.50611028033836802</v>
       </c>
       <c r="M27" s="5">
-        <v>0.99999835642105595</v>
+        <v>0.99469475181095701</v>
       </c>
       <c r="N27" s="5">
-        <v>0.99999809352649904</v>
+        <v>0.50611028033836802</v>
       </c>
       <c r="O27" s="5">
-        <v>0.99999792846463698</v>
+        <v>0.98326343747039402</v>
       </c>
       <c r="P27" s="5">
-        <v>0.49623994520131998</v>
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.99567830868957896</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.85047263960992403</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.98918269384308399</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0.99534065954726403</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0.99281312166810298</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.95607417449702703</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0.56575800308097501</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.58549957623232995</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.99165308938322405</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0.99081655323690998</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0.96224878323466501</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0.99155297306108603</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0.99324663119502099</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0.99112573623267797</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0.992061142641954</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>0.93153779029290296</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0.99451878989168696</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>0.50611028033836802</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>0.96316999438130702</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>0.96783188734217096</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0.84853712638918799</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>0.99081239203141203</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>0.996342941662962</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>0.99446506791448797</v>
+      </c>
+      <c r="AU27" s="5">
+        <v>0.99669452639126899</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>0.98479116449884296</v>
+      </c>
+      <c r="AW27" s="5">
+        <v>0.52557559127856202</v>
+      </c>
+      <c r="AX27" s="5">
+        <v>0.99608958850479201</v>
+      </c>
+      <c r="AY27" s="5">
+        <v>0.99454092744783995</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>404123</v>
       </c>
       <c r="B28" s="5">
-        <v>0.999999544614672</v>
+        <v>0.93195378164493803</v>
       </c>
       <c r="C28" s="5">
-        <v>0.999999524441752</v>
+        <v>0.95837453590819</v>
       </c>
       <c r="D28" s="5">
-        <v>0.99999859556416804</v>
+        <v>0.531863323481649</v>
       </c>
       <c r="E28" s="5">
-        <v>0.999998805752501</v>
+        <v>0.97053193047652597</v>
       </c>
       <c r="F28" s="5">
-        <v>0.9999987658749</v>
+        <v>0.96525775023264604</v>
       </c>
       <c r="G28" s="5">
-        <v>0.999997518667751</v>
+        <v>0.93187722503532899</v>
       </c>
       <c r="H28" s="5">
-        <v>0.99999849632319704</v>
+        <v>0.96048758291954095</v>
       </c>
       <c r="I28" s="5">
-        <v>0.99999843603928595</v>
+        <v>0.87906855157766195</v>
       </c>
       <c r="J28" s="5">
-        <v>0.99999808137482804</v>
+        <v>0.97808311741263598</v>
       </c>
       <c r="K28" s="5">
-        <v>0.99999736008617301</v>
+        <v>0.50370983297120298</v>
       </c>
       <c r="L28" s="5">
-        <v>0.99999800506698699</v>
+        <v>0.50370983297120397</v>
       </c>
       <c r="M28" s="5">
-        <v>0.99999882963621001</v>
+        <v>0.97128576011011702</v>
       </c>
       <c r="N28" s="5">
-        <v>0.999998657328378</v>
+        <v>0.50370983297120397</v>
       </c>
       <c r="O28" s="5">
-        <v>0.99999855807671201</v>
+        <v>0.95277550316299497</v>
       </c>
       <c r="P28" s="5">
-        <v>0.49624013814690499</v>
+        <v>0.50370983297120397</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.97881024913534398</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.74966184787705803</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0.50370983297120397</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.96296931121356599</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0.97768764514640305</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0.96863710008310899</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0.90470360851221998</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0.54384867552568705</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.557213405812228</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0.96271665294767905</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0.90425867287319595</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>0.84606353253977595</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>0.94849813839651698</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0.96939788273662197</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0.94923062232428601</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0.97352939555791895</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>0.81968683343154003</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0.97810822648735396</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>0.50370983297120298</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>0.86165557883811905</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>0.87002924239815405</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>0.74946599462609398</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>0.96902887994465103</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>0.98270280753126005</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>0.97753240741429603</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>0.98476691778526304</v>
+      </c>
+      <c r="AV28" s="5">
+        <v>0.95438357388536399</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>0.516777883604016</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>0.98209151565968</v>
+      </c>
+      <c r="AY28" s="5">
+        <v>0.97554364065419596</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>404138</v>
       </c>
       <c r="B29" s="5">
-        <v>0.88416377017759096</v>
+        <v>0.58518961137496905</v>
       </c>
       <c r="C29" s="5">
-        <v>0.90720185967898503</v>
+        <v>0.63862026136288197</v>
       </c>
       <c r="D29" s="5">
-        <v>0.68132079816319202</v>
+        <v>0.50193314389519905</v>
       </c>
       <c r="E29" s="5">
-        <v>0.756049780739387</v>
+        <v>0.67859323593505605</v>
       </c>
       <c r="F29" s="5">
-        <v>0.73639492568060305</v>
+        <v>0.73223911200023895</v>
       </c>
       <c r="G29" s="5">
-        <v>0.62230251506162204</v>
+        <v>0.64449960558000396</v>
       </c>
       <c r="H29" s="5">
-        <v>0.73994802625594602</v>
+        <v>0.71981231221039899</v>
       </c>
       <c r="I29" s="5">
-        <v>0.59012893228625996</v>
+        <v>0.57122217601394898</v>
       </c>
       <c r="J29" s="5">
-        <v>0.62942353553986896</v>
+        <v>0.66143118648113497</v>
       </c>
       <c r="K29" s="5">
-        <v>0.60158268264734205</v>
+        <v>0.50049661437525195</v>
       </c>
       <c r="L29" s="5">
-        <v>0.74781399764743495</v>
+        <v>0.50049661437525195</v>
       </c>
       <c r="M29" s="5">
-        <v>0.66991392145565398</v>
+        <v>0.68798701804935103</v>
       </c>
       <c r="N29" s="5">
-        <v>0.71245535542849403</v>
+        <v>0.50049661437525195</v>
       </c>
       <c r="O29" s="5">
-        <v>0.742147372261725</v>
+        <v>0.61872472323275696</v>
       </c>
       <c r="P29" s="5">
-        <v>0.38460164444626099</v>
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.71283678223660896</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.52339499477181695</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0.63766968241870803</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0.74037493404061205</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0.62069555510865104</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0.54024192297561202</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0.50255898793183096</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.50320600209490096</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0.59295031331065895</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0.52971794682989704</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>0.52069289872578195</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0.56739582560497004</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0.73571567581641095</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0.56831158903795997</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>0.62375072830109801</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>0.52771306230064297</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0.698314709106857</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>0.50049661437525195</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>0.54490751837096996</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>0.54754649794177301</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>0.52826309432852903</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>0.69201847548996098</v>
+      </c>
+      <c r="AS29" s="5">
+        <v>0.76222834707152298</v>
+      </c>
+      <c r="AT29" s="5">
+        <v>0.71761300249766202</v>
+      </c>
+      <c r="AU29" s="5">
+        <v>0.77803612320544102</v>
+      </c>
+      <c r="AV29" s="5">
+        <v>0.62456398987864103</v>
+      </c>
+      <c r="AW29" s="5">
+        <v>0.50120053522138697</v>
+      </c>
+      <c r="AX29" s="5">
+        <v>0.750088101890101</v>
+      </c>
+      <c r="AY29" s="5">
+        <v>0.70308656405804504</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>404161</v>
       </c>
       <c r="B30" s="5">
-        <v>0.99086634196622203</v>
+        <v>0.855675023375295</v>
       </c>
       <c r="C30" s="5">
-        <v>0.99059085676563796</v>
+        <v>0.94201699480124801</v>
       </c>
       <c r="D30" s="5">
-        <v>0.972004227924951</v>
+        <v>0.54276470318180103</v>
       </c>
       <c r="E30" s="5">
-        <v>0.97615858969886204</v>
+        <v>0.965605687843759</v>
       </c>
       <c r="F30" s="5">
-        <v>0.97532106622479198</v>
+        <v>0.95073572049616994</v>
       </c>
       <c r="G30" s="5">
-        <v>0.95097391121422503</v>
+        <v>0.87721383413866205</v>
       </c>
       <c r="H30" s="5">
-        <v>0.970468302527281</v>
+        <v>0.94605248674756603</v>
       </c>
       <c r="I30" s="5">
-        <v>0.96811070369541297</v>
+        <v>0.74401636823401796</v>
       </c>
       <c r="J30" s="5">
-        <v>0.96172430566761102</v>
+        <v>0.97006668601716595</v>
       </c>
       <c r="K30" s="5">
-        <v>0.94696767924113701</v>
+        <v>0.53432691735689297</v>
       </c>
       <c r="L30" s="5">
-        <v>0.96194417938201204</v>
+        <v>0.53424302013752001</v>
       </c>
       <c r="M30" s="5">
-        <v>0.97636464771429399</v>
+        <v>0.96742044018930395</v>
       </c>
       <c r="N30" s="5">
-        <v>0.97317099214969005</v>
+        <v>0.53435068930579199</v>
       </c>
       <c r="O30" s="5">
-        <v>0.97160750585142397</v>
+        <v>0.91023399627052703</v>
       </c>
       <c r="P30" s="5">
-        <v>0.486951946407366</v>
+        <v>0.53432146663055502</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.53427972253752898</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.97197206490168597</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.63299232969760399</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0.53434140413642806</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0.95291599224233203</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0.97408835735357402</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0.97788068108243897</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0.76351354695746898</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0.54647717081640601</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.55084374267275904</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0.93339630819614505</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0.710425875842563</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0.65785054529978004</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0.88132452042607701</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0.53419276478414401</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0.53429954368749899</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0.96739433551744303</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0.88347831145854205</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0.97791808095074295</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>0.53436534162424798</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>0.53420233364244196</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>0.65905056825484698</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0.97501430232491504</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0.53428881648505999</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0.70232516991097504</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>0.71041691119246597</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0.63910223269886401</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>0.956921000497305</v>
+      </c>
+      <c r="AS30" s="5">
+        <v>0.97769863705072302</v>
+      </c>
+      <c r="AT30" s="5">
+        <v>0.97198358548793395</v>
+      </c>
+      <c r="AU30" s="5">
+        <v>0.98002223536556499</v>
+      </c>
+      <c r="AV30" s="5">
+        <v>0.92177936834233498</v>
+      </c>
+      <c r="AW30" s="5">
+        <v>0.53829972013860505</v>
+      </c>
+      <c r="AX30" s="5">
+        <v>0.97496224035432799</v>
+      </c>
+      <c r="AY30" s="5">
+        <v>0.97143929608507096</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>404190</v>
       </c>
       <c r="B31" s="5">
-        <v>0.99220461121736403</v>
+        <v>0.92650539099111895</v>
       </c>
       <c r="C31" s="5">
-        <v>0.99194491653327499</v>
+        <v>0.95527687691008301</v>
       </c>
       <c r="D31" s="5">
-        <v>0.97348705345505104</v>
+        <v>0.54371427874561196</v>
       </c>
       <c r="E31" s="5">
-        <v>0.98001976341725705</v>
+        <v>0.96617540489383802</v>
       </c>
       <c r="F31" s="5">
-        <v>0.97877398702046103</v>
+        <v>0.95874815440934602</v>
       </c>
       <c r="G31" s="5">
-        <v>0.96010413736878797</v>
+        <v>0.926980237697691</v>
       </c>
       <c r="H31" s="5">
-        <v>0.97476449365746898</v>
+        <v>0.95594724676929699</v>
       </c>
       <c r="I31" s="5">
-        <v>0.97265339668446504</v>
+        <v>0.85736071226863197</v>
       </c>
       <c r="J31" s="5">
-        <v>0.96588838829761403</v>
+        <v>0.97567432503307405</v>
       </c>
       <c r="K31" s="5">
-        <v>0.95520023399103804</v>
+        <v>0.50068437607362903</v>
       </c>
       <c r="L31" s="5">
-        <v>0.96599481480238703</v>
+        <v>0.50069449180580095</v>
       </c>
       <c r="M31" s="5">
-        <v>0.98058391926152</v>
+        <v>0.96796780384895897</v>
       </c>
       <c r="N31" s="5">
-        <v>0.97807361201087495</v>
+        <v>0.50069587404810201</v>
       </c>
       <c r="O31" s="5">
-        <v>0.97370200113681005</v>
+        <v>0.94607470100165703</v>
       </c>
       <c r="P31" s="5">
-        <v>0.48828402494451001</v>
+        <v>0.50069658248322602</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.50069699934871603</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.97696137367218605</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.78048948615116398</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0.50069515618302096</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0.95834771409806796</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0.974584417225283</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0.96481530492176404</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0.89691550722464697</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0.56186523598035498</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.58194824391853905</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0.95529668293508796</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0.87324030076564796</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0.83329261879984295</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0.94270274045824998</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0.50069786119364801</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0.50069713251444303</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0.96701087916836004</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0.94342074114818297</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0.96910418183516001</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>0.50068637801979499</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>0.50068649807500998</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>0.82055254733629102</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0.97444758650983598</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>0.50069631492419597</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>0.84454966773142104</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>0.849233843751385</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>0.78085600000578403</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>0.96315179750138502</v>
+      </c>
+      <c r="AS31" s="5">
+        <v>0.980745622198119</v>
+      </c>
+      <c r="AT31" s="5">
+        <v>0.97429310721504203</v>
+      </c>
+      <c r="AU31" s="5">
+        <v>0.98263599443251803</v>
+      </c>
+      <c r="AV31" s="5">
+        <v>0.94949178971675097</v>
+      </c>
+      <c r="AW31" s="5">
+        <v>0.52075044399903803</v>
+      </c>
+      <c r="AX31" s="5">
+        <v>0.97906182346263704</v>
+      </c>
+      <c r="AY31" s="5">
+        <v>0.97179439476877805</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>408704</v>
       </c>
       <c r="B32" s="5">
-        <v>0.98280264516750404</v>
+        <v>0.82603832008153899</v>
       </c>
       <c r="C32" s="5">
-        <v>0.98268754502053302</v>
+        <v>0.88748344530930201</v>
       </c>
       <c r="D32" s="5">
-        <v>0.94516724764021898</v>
+        <v>0.51795556622703698</v>
       </c>
       <c r="E32" s="5">
-        <v>0.95291478090044002</v>
+        <v>0.91318498113771995</v>
       </c>
       <c r="F32" s="5">
-        <v>0.95529919753971104</v>
+        <v>0.90127930120357502</v>
       </c>
       <c r="G32" s="5">
-        <v>0.91292432443803095</v>
+        <v>0.83592283470376505</v>
       </c>
       <c r="H32" s="5">
-        <v>0.94736447235377097</v>
+        <v>0.89502183819515102</v>
       </c>
       <c r="I32" s="5">
-        <v>0.93962919221438401</v>
+        <v>0.72564691588307295</v>
       </c>
       <c r="J32" s="5">
-        <v>0.92872247382482498</v>
+        <v>0.934402550643604</v>
       </c>
       <c r="K32" s="5">
-        <v>0.90412335772990504</v>
+        <v>0.50302359235087302</v>
       </c>
       <c r="L32" s="5">
-        <v>0.93168059117298396</v>
+        <v>0.50302359235087302</v>
       </c>
       <c r="M32" s="5">
-        <v>0.954313922608089</v>
+        <v>0.91753562670516797</v>
       </c>
       <c r="N32" s="5">
-        <v>0.95392965494868998</v>
+        <v>0.50302359235087302</v>
       </c>
       <c r="O32" s="5">
-        <v>0.94787432467404598</v>
+        <v>0.86756965175968304</v>
       </c>
       <c r="P32" s="5">
-        <v>0.47882982766688797</v>
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.93883327457966204</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.637186545232866</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0.893984591231893</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0.93438032720744402</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0.90757665059350101</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0.77147001816441596</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0.52431484209597801</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0.53147846332062998</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0.884698879961762</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0.73497022932485101</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0.68441344455088005</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0.85573486172480995</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0.91802456852383496</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0.85740407511975603</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0.917665492622039</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>0.67347491703088003</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>0.93259129280618802</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>0.50302359235087302</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>0.70321574116748298</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>0.70931415137472698</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0.63920271485014402</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>0.90748066887203105</v>
+      </c>
+      <c r="AS32" s="5">
+        <v>0.94905446551806405</v>
+      </c>
+      <c r="AT32" s="5">
+        <v>0.93281278247157096</v>
+      </c>
+      <c r="AU32" s="5">
+        <v>0.95390167344425802</v>
+      </c>
+      <c r="AV32" s="5">
+        <v>0.87473932992626902</v>
+      </c>
+      <c r="AW32" s="5">
+        <v>0.51002591733620095</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>0.94481313340203998</v>
+      </c>
+      <c r="AY32" s="5">
+        <v>0.926666233875446</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>408725</v>
       </c>
       <c r="B33" s="5">
-        <v>0.97968685794153099</v>
+        <v>0.807753396026334</v>
       </c>
       <c r="C33" s="5">
-        <v>0.97941826532311305</v>
+        <v>0.86824098190814303</v>
       </c>
       <c r="D33" s="5">
-        <v>0.93910325522001203</v>
+        <v>0.51817576219751404</v>
       </c>
       <c r="E33" s="5">
-        <v>0.94768453352529203</v>
+        <v>0.89905845608945101</v>
       </c>
       <c r="F33" s="5">
-        <v>0.94530560701280297</v>
+        <v>0.88717815789077603</v>
       </c>
       <c r="G33" s="5">
-        <v>0.89448505042335202</v>
+        <v>0.81378084891443103</v>
       </c>
       <c r="H33" s="5">
-        <v>0.93796428138128896</v>
+        <v>0.880356275392849</v>
       </c>
       <c r="I33" s="5">
-        <v>0.93261276661653603</v>
+        <v>0.70141998346317702</v>
       </c>
       <c r="J33" s="5">
-        <v>0.90224391750409005</v>
+        <v>0.92183741374674699</v>
       </c>
       <c r="K33" s="5">
-        <v>0.88422604302942698</v>
+        <v>0.50705734187292195</v>
       </c>
       <c r="L33" s="5">
-        <v>0.92496559932020495</v>
+        <v>0.50705734187291895</v>
       </c>
       <c r="M33" s="5">
-        <v>0.94500655443905002</v>
+        <v>0.90373961319186102</v>
       </c>
       <c r="N33" s="5">
-        <v>0.94250982851919696</v>
+        <v>0.50705734187291795</v>
       </c>
       <c r="O33" s="5">
-        <v>0.941602962916402</v>
+        <v>0.84560360858382499</v>
       </c>
       <c r="P33" s="5">
-        <v>0.47559705484322201</v>
+        <v>0.50705734187291496</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.50705734187291496</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.92787061587484998</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.61501131162203404</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0.50705734187291396</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.875825904404545</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0.92258269002675197</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0.89264552017583798</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0.74414475712711503</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0.52314352780940399</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0.52925269573193701</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>0.86136493762730404</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0.70094916428420695</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0.65214072530734701</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0.83759241675465501</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0.50705734187291496</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0.50705734187292195</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0.90523796654042699</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0.83881473570329301</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0.90457376249465904</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>0.50705734187291596</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>0.50705734187291795</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>0.64527118475717105</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>0.92214492140550497</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>0.50705734187291895</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>0.675403017371348</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>0.68144957388031902</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>0.61805437086219694</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>0.89318666307072803</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>0.94119305844226797</v>
+      </c>
+      <c r="AT33" s="5">
+        <v>0.921066233100855</v>
+      </c>
+      <c r="AU33" s="5">
+        <v>0.94548528174956703</v>
+      </c>
+      <c r="AV33" s="5">
+        <v>0.85314265160214997</v>
+      </c>
+      <c r="AW33" s="5">
+        <v>0.51226769336019196</v>
+      </c>
+      <c r="AX33" s="5">
+        <v>0.93502780446704803</v>
+      </c>
+      <c r="AY33" s="5">
+        <v>0.91458295310354099</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>408743</v>
       </c>
       <c r="B34" s="5">
-        <v>0.99999952577953699</v>
+        <v>0.93567333443330702</v>
       </c>
       <c r="C34" s="5">
-        <v>0.99999950093491796</v>
+        <v>0.96026486031608005</v>
       </c>
       <c r="D34" s="5">
-        <v>0.99999852866792105</v>
+        <v>0.53584713068894096</v>
       </c>
       <c r="E34" s="5">
-        <v>0.99999874893684404</v>
+        <v>0.96892671220900195</v>
       </c>
       <c r="F34" s="5">
-        <v>0.99999870835778404</v>
+        <v>0.96236516336852895</v>
       </c>
       <c r="G34" s="5">
-        <v>0.99999739614776995</v>
+        <v>0.93491801961210996</v>
       </c>
       <c r="H34" s="5">
-        <v>0.99999840496871095</v>
+        <v>0.96105721100856101</v>
       </c>
       <c r="I34" s="5">
-        <v>0.99999839589980699</v>
+        <v>0.87924961379664002</v>
       </c>
       <c r="J34" s="5">
-        <v>0.999997966007386</v>
+        <v>0.97813845953587397</v>
       </c>
       <c r="K34" s="5">
-        <v>0.99999722293133797</v>
+        <v>0.50605554385691698</v>
       </c>
       <c r="L34" s="5">
-        <v>0.99999788336374196</v>
+        <v>0.50605554385691698</v>
       </c>
       <c r="M34" s="5">
-        <v>0.99999878788466301</v>
+        <v>0.971270400549475</v>
       </c>
       <c r="N34" s="5">
-        <v>0.99999861272240698</v>
+        <v>0.50605554385691698</v>
       </c>
       <c r="O34" s="5">
-        <v>0.99999849689249498</v>
+        <v>0.94980107041433404</v>
       </c>
       <c r="P34" s="5">
-        <v>0.49624011888385</v>
+        <v>0.50605554385691798</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.97902415477761795</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.75921142787442297</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0.963360014649705</v>
+      </c>
+      <c r="V34" s="5">
+        <v>0.97658723554134297</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0.96863102352668895</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0.897630534740817</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0.54849989501973795</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0.56257937043998996</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0.95926696460023098</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0.894700774504123</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0.84705904117616304</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0.94855270284368998</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0.97050125874676796</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>0.94935401430495403</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>0.97230279768984196</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="AK34" s="5">
+        <v>0.50605554385691698</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>0.82431887712416396</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>0.977420873585227</v>
+      </c>
+      <c r="AN34" s="5">
+        <v>0.50605554385691798</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>0.86219302013006305</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>0.86920761531704205</v>
+      </c>
+      <c r="AQ34" s="5">
+        <v>0.75950174541018101</v>
+      </c>
+      <c r="AR34" s="5">
+        <v>0.96668210319202497</v>
+      </c>
+      <c r="AS34" s="5">
+        <v>0.982790808513061</v>
+      </c>
+      <c r="AT34" s="5">
+        <v>0.97733334815246498</v>
+      </c>
+      <c r="AU34" s="5">
+        <v>0.98435929236211495</v>
+      </c>
+      <c r="AV34" s="5">
+        <v>0.95315924582084</v>
+      </c>
+      <c r="AW34" s="5">
+        <v>0.51989395565697605</v>
+      </c>
+      <c r="AX34" s="5">
+        <v>0.98109336642309397</v>
+      </c>
+      <c r="AY34" s="5">
+        <v>0.97445229942169997</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>408747</v>
       </c>
       <c r="B35" s="5">
-        <v>0.99999839910751598</v>
+        <v>0.95338659246745106</v>
       </c>
       <c r="C35" s="5">
-        <v>0.99999832819937595</v>
+        <v>0.97121707700750204</v>
       </c>
       <c r="D35" s="5">
-        <v>0.99999506274331496</v>
+        <v>0.54308653686488395</v>
       </c>
       <c r="E35" s="5">
-        <v>0.99999580163770696</v>
+        <v>0.97878124721041404</v>
       </c>
       <c r="F35" s="5">
-        <v>0.99999566147622199</v>
+        <v>0.97415361240560805</v>
       </c>
       <c r="G35" s="5">
-        <v>0.99999127715316105</v>
+        <v>0.94955035404279398</v>
       </c>
       <c r="H35" s="5">
-        <v>0.99999471397628203</v>
+        <v>0.97147232575264297</v>
       </c>
       <c r="I35" s="5">
-        <v>0.99999450192211103</v>
+        <v>0.90201787196807504</v>
       </c>
       <c r="J35" s="5">
-        <v>0.99999325519031601</v>
+        <v>0.98480016371545398</v>
       </c>
       <c r="K35" s="5">
-        <v>0.99999071940606199</v>
+        <v>0.50104048876748597</v>
       </c>
       <c r="L35" s="5">
-        <v>0.99999298689578198</v>
+        <v>0.50104048876748597</v>
       </c>
       <c r="M35" s="5">
-        <v>0.99999588561736097</v>
+        <v>0.98023318019050298</v>
       </c>
       <c r="N35" s="5">
-        <v>0.99999527993636095</v>
+        <v>0.50104048876748597</v>
       </c>
       <c r="O35" s="5">
-        <v>0.99999493099424597</v>
+        <v>0.96662764568164605</v>
       </c>
       <c r="P35" s="5">
-        <v>0.49623897259098299</v>
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.98577707692344096</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.83274365885494195</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0.97376007256886499</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0.98400226669326396</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0.97805581694787502</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0.93690220225575804</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0.560918176239248</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0.58072175378649005</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0.97229887060541997</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0.91031421267916302</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0.89524917084342104</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0.96307786874513901</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0.97876425816812995</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>0.96339902439529301</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>0.98069656217622403</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="AK35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>0.88615834787583803</v>
+      </c>
+      <c r="AM35" s="5">
+        <v>0.98378004213216197</v>
+      </c>
+      <c r="AN35" s="5">
+        <v>0.50104048876748597</v>
+      </c>
+      <c r="AO35" s="5">
+        <v>0.89768527945923204</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>0.89877413678579798</v>
+      </c>
+      <c r="AQ35" s="5">
+        <v>0.83147339462679204</v>
+      </c>
+      <c r="AR35" s="5">
+        <v>0.97656606994293704</v>
+      </c>
+      <c r="AS35" s="5">
+        <v>0.98804373094363396</v>
+      </c>
+      <c r="AT35" s="5">
+        <v>0.98374761791056398</v>
+      </c>
+      <c r="AU35" s="5">
+        <v>0.98913881946769699</v>
+      </c>
+      <c r="AV35" s="5">
+        <v>0.96818076465499603</v>
+      </c>
+      <c r="AW35" s="5">
+        <v>0.52057575664321498</v>
+      </c>
+      <c r="AX35" s="5">
+        <v>0.98683364559926001</v>
+      </c>
+      <c r="AY35" s="5">
+        <v>0.98258858932677495</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>408782</v>
       </c>
       <c r="B36" s="5">
-        <v>0.99999963238732104</v>
+        <v>0.94450695685252295</v>
       </c>
       <c r="C36" s="5">
-        <v>0.99999961610247001</v>
+        <v>0.96697370415958195</v>
       </c>
       <c r="D36" s="5">
-        <v>0.99999886625992995</v>
+        <v>0.541628042245067</v>
       </c>
       <c r="E36" s="5">
-        <v>0.99999903593739004</v>
+        <v>0.97564421870298401</v>
       </c>
       <c r="F36" s="5">
-        <v>0.99999900374402695</v>
+        <v>0.969977655303768</v>
       </c>
       <c r="G36" s="5">
-        <v>0.99999799693055302</v>
+        <v>0.94732210733933497</v>
       </c>
       <c r="H36" s="5">
-        <v>0.99999878614717097</v>
+        <v>0.96735932872385999</v>
       </c>
       <c r="I36" s="5">
-        <v>0.99999873748439005</v>
+        <v>0.89500729821801295</v>
       </c>
       <c r="J36" s="5">
-        <v>0.99999845117545205</v>
+        <v>0.98257711557569305</v>
       </c>
       <c r="K36" s="5">
-        <v>0.99999786891290898</v>
+        <v>0.50498331892698101</v>
       </c>
       <c r="L36" s="5">
-        <v>0.99999838958221399</v>
+        <v>0.50498331892698101</v>
       </c>
       <c r="M36" s="5">
-        <v>0.99999905521656396</v>
+        <v>0.97683062056410197</v>
       </c>
       <c r="N36" s="5">
-        <v>0.99999891612055003</v>
+        <v>0.50498331892698101</v>
       </c>
       <c r="O36" s="5">
-        <v>0.99999883599607298</v>
+        <v>0.96265051467917695</v>
       </c>
       <c r="P36" s="5">
-        <v>0.49624022745598401</v>
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.983559089294608</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.80422935679229801</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0.96931192570573799</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0.98159911901339003</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0.97489012144197096</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0.92578060645196603</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0.55717422852735699</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0.57445227888692596</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0.967600033347915</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0.89627406796747799</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0.88266392201226096</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0.95881057079416299</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0.97580101260519903</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>0.95914520261182001</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>0.97791986381603602</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>0.86616894118004795</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>0.98151446211695004</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>0.50498331892698101</v>
+      </c>
+      <c r="AO36" s="5">
+        <v>0.88871336765249098</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>0.89139385323864395</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>0.80361117562357598</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>0.97401045905032102</v>
+      </c>
+      <c r="AS36" s="5">
+        <v>0.98618045671160004</v>
+      </c>
+      <c r="AT36" s="5">
+        <v>0.98134102410135304</v>
+      </c>
+      <c r="AU36" s="5">
+        <v>0.98761757541581396</v>
+      </c>
+      <c r="AV36" s="5">
+        <v>0.964489826746043</v>
+      </c>
+      <c r="AW36" s="5">
+        <v>0.52200946916578905</v>
+      </c>
+      <c r="AX36" s="5">
+        <v>0.98525508604927603</v>
+      </c>
+      <c r="AY36" s="5">
+        <v>0.98023701959604503</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>408786</v>
       </c>
       <c r="B37" s="5">
-        <v>0.99719257196446898</v>
+        <v>0.88112923131314702</v>
       </c>
       <c r="C37" s="5">
-        <v>0.99708615933985001</v>
+        <v>0.92459411144092196</v>
       </c>
       <c r="D37" s="5">
-        <v>0.99133985590967499</v>
+        <v>0.53056245010300296</v>
       </c>
       <c r="E37" s="5">
-        <v>0.99267008265946699</v>
+        <v>0.94352214598867401</v>
       </c>
       <c r="F37" s="5">
-        <v>0.99241659172628205</v>
+        <v>0.93296657836933405</v>
       </c>
       <c r="G37" s="5">
-        <v>0.98486689659180304</v>
+        <v>0.88366859557130195</v>
       </c>
       <c r="H37" s="5">
-        <v>0.99080300765273399</v>
+        <v>0.92856752586271496</v>
       </c>
       <c r="I37" s="5">
-        <v>0.990324991940704</v>
+        <v>0.79099617365125396</v>
       </c>
       <c r="J37" s="5">
-        <v>0.98820743394471999</v>
+        <v>0.95866020499010796</v>
       </c>
       <c r="K37" s="5">
-        <v>0.98382987163417801</v>
+        <v>0.51059040288030799</v>
       </c>
       <c r="L37" s="5">
-        <v>0.98791806653599101</v>
+        <v>0.51059040288030799</v>
       </c>
       <c r="M37" s="5">
-        <v>0.99276607838064801</v>
+        <v>0.94601991801931695</v>
       </c>
       <c r="N37" s="5">
-        <v>0.99174354443768598</v>
+        <v>0.51059040288030799</v>
       </c>
       <c r="O37" s="5">
-        <v>0.99117391753292505</v>
+        <v>0.91261320107820298</v>
       </c>
       <c r="P37" s="5">
-        <v>0.49338665531509202</v>
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.96069145490545604</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.68823787528648595</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0.93014727447208301</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0.95760335544396902</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0.94126467245555601</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0.84209754801956305</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0.53954928781164402</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0.549375018184592</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0.923999846052869</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>0.80662857337164195</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0.74719939514811695</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0.90446568616184297</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0.94521530029725698</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0.90570178704090298</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0.94745593714863297</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>0.51059040288030899</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>0.73306377241009302</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>0.95649290104940099</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0.51059040288030799</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>0.76883620090174798</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>0.77552494029670405</v>
+      </c>
+      <c r="AQ37" s="5">
+        <v>0.69021031813599598</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>0.93939346404650903</v>
+      </c>
+      <c r="AS37" s="5">
+        <v>0.96731235510723301</v>
+      </c>
+      <c r="AT37" s="5">
+        <v>0.95654798690758602</v>
+      </c>
+      <c r="AU37" s="5">
+        <v>0.97047663540944695</v>
+      </c>
+      <c r="AV37" s="5">
+        <v>0.91809099428916396</v>
+      </c>
+      <c r="AW37" s="5">
+        <v>0.51959255182813002</v>
+      </c>
+      <c r="AX37" s="5">
+        <v>0.964544253885667</v>
+      </c>
+      <c r="AY37" s="5">
+        <v>0.95220893978946897</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>408790</v>
       </c>
       <c r="B38" s="5">
-        <v>0.99999965040920202</v>
+        <v>0.94793218030829796</v>
       </c>
       <c r="C38" s="5">
-        <v>0.99999963276533599</v>
+        <v>0.96899521680785194</v>
       </c>
       <c r="D38" s="5">
-        <v>0.99999892401117296</v>
+        <v>0.53909365595886505</v>
       </c>
       <c r="E38" s="5">
-        <v>0.99999907794152099</v>
+        <v>0.97707500697287597</v>
       </c>
       <c r="F38" s="5">
-        <v>0.99999904599589695</v>
+        <v>0.97190260516535798</v>
       </c>
       <c r="G38" s="5">
-        <v>0.999998083582327</v>
+        <v>0.94883132133677195</v>
       </c>
       <c r="H38" s="5">
-        <v>0.99999884096732505</v>
+        <v>0.96913499766690603</v>
       </c>
       <c r="I38" s="5">
-        <v>0.99999880406561803</v>
+        <v>0.89952701499805299</v>
       </c>
       <c r="J38" s="5">
-        <v>0.99999852180919302</v>
+        <v>0.98361962042259299</v>
       </c>
       <c r="K38" s="5">
-        <v>0.99999794874918202</v>
+        <v>0.499742006962756</v>
       </c>
       <c r="L38" s="5">
-        <v>0.99999844140465599</v>
+        <v>0.499742006962756</v>
       </c>
       <c r="M38" s="5">
-        <v>0.99999910621325405</v>
+        <v>0.97836497814052203</v>
       </c>
       <c r="N38" s="5">
-        <v>0.99999896624870999</v>
+        <v>0.499742006962756</v>
       </c>
       <c r="O38" s="5">
-        <v>0.99999888822752603</v>
+        <v>0.96520298985137398</v>
       </c>
       <c r="P38" s="5">
-        <v>0.49624024568370501</v>
+        <v>0.499742006962756</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.499742006962755</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.98461805942326397</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0.81566927773619602</v>
+      </c>
+      <c r="T38" s="5">
+        <v>0.499742006962756</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0.97145611122744602</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0.98280880048084795</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0.97603796575139601</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0.93175346188970698</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0.555790418444154</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0.57434382104432002</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>0.96957748767894303</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0.90084962449082995</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0.88902299468051005</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>0.96100816717822002</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>0.499742006962756</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>0.499742006962756</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0.977242011388751</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>0.96128100293671803</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.97942016291897205</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.499742006962755</v>
+      </c>
+      <c r="AK38" s="5">
+        <v>0.499742006962756</v>
+      </c>
+      <c r="AL38" s="5">
+        <v>0.87549398009886203</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>0.98267188917680803</v>
+      </c>
+      <c r="AN38" s="5">
+        <v>0.499742006962755</v>
+      </c>
+      <c r="AO38" s="5">
+        <v>0.89356361140714202</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>0.89549190686628199</v>
+      </c>
+      <c r="AQ38" s="5">
+        <v>0.81439827582816504</v>
+      </c>
+      <c r="AR38" s="5">
+        <v>0.97560308347438496</v>
+      </c>
+      <c r="AS38" s="5">
+        <v>0.98706693350934704</v>
+      </c>
+      <c r="AT38" s="5">
+        <v>0.98263548464258399</v>
+      </c>
+      <c r="AU38" s="5">
+        <v>0.98834351089607397</v>
+      </c>
+      <c r="AV38" s="5">
+        <v>0.96659268796771203</v>
+      </c>
+      <c r="AW38" s="5">
+        <v>0.518023566066658</v>
+      </c>
+      <c r="AX38" s="5">
+        <v>0.98597963221461904</v>
+      </c>
+      <c r="AY38" s="5">
+        <v>0.98116956969354396</v>
       </c>
     </row>
   </sheetData>
